--- a/database/industries/darou/dekapsul/product/monthly_seprated.xlsx
+++ b/database/industries/darou/dekapsul/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B42F0A-319A-4CA2-BD3D-E696B1086245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AB28F-622E-4D4D-AE58-50576A7B3DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1477,95 +1477,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>543416420</v>
       </c>
       <c r="Z11" s="11">
-        <v>543416420</v>
+        <v>549924160</v>
       </c>
       <c r="AA11" s="11">
-        <v>549924160</v>
+        <v>555480529</v>
       </c>
       <c r="AB11" s="11">
-        <v>555480529</v>
+        <v>536130875</v>
       </c>
       <c r="AC11" s="11">
-        <v>536130875</v>
+        <v>516305485</v>
       </c>
       <c r="AD11" s="11">
-        <v>516305485</v>
+        <v>545865235</v>
       </c>
       <c r="AE11" s="11">
-        <v>545865235</v>
+        <v>520958681</v>
       </c>
       <c r="AF11" s="11">
-        <v>520958681</v>
+        <v>542383943</v>
       </c>
       <c r="AG11" s="11">
-        <v>542383943</v>
+        <v>375426360</v>
       </c>
       <c r="AH11" s="11">
-        <v>375426360</v>
+        <v>446065394</v>
       </c>
       <c r="AI11" s="11">
-        <v>446065394</v>
+        <v>552395612</v>
       </c>
       <c r="AJ11" s="11">
-        <v>552395612</v>
+        <v>551685968</v>
       </c>
       <c r="AK11" s="11">
-        <v>551685968</v>
+        <v>551169258</v>
       </c>
       <c r="AL11" s="11">
-        <v>551169258</v>
+        <v>548405134</v>
       </c>
       <c r="AM11" s="11">
-        <v>548405134</v>
+        <v>580061446</v>
       </c>
       <c r="AN11" s="11">
-        <v>580061446</v>
+        <v>522939370</v>
       </c>
       <c r="AO11" s="11">
-        <v>522939370</v>
+        <v>536379292</v>
       </c>
       <c r="AP11" s="11">
-        <v>536379292</v>
+        <v>543087251</v>
       </c>
       <c r="AQ11" s="11">
-        <v>543087251</v>
+        <v>533728325</v>
       </c>
       <c r="AR11" s="11">
-        <v>533728325</v>
+        <v>534681699</v>
       </c>
       <c r="AS11" s="11">
-        <v>534681699</v>
+        <v>393015071</v>
       </c>
       <c r="AT11" s="11">
-        <v>393015071</v>
+        <v>550620859</v>
       </c>
       <c r="AU11" s="11">
-        <v>550620859</v>
+        <v>550710422</v>
       </c>
       <c r="AV11" s="11">
-        <v>550710422</v>
+        <v>546644459</v>
       </c>
       <c r="AW11" s="11">
-        <v>546644459</v>
+        <v>550240536</v>
       </c>
       <c r="AX11" s="11">
-        <v>550240536</v>
+        <v>541983692</v>
       </c>
       <c r="AY11" s="11">
-        <v>541983692</v>
+        <v>541550519</v>
       </c>
       <c r="AZ11" s="11">
-        <v>541550519</v>
+        <v>532382003</v>
       </c>
       <c r="BA11" s="11">
-        <v>532382003</v>
+        <v>530142393</v>
       </c>
       <c r="BB11" s="11">
-        <v>530142393</v>
+        <v>530319550</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1635,94 +1635,94 @@
         <v>0</v>
       </c>
       <c r="Y12" s="13">
-        <v>0</v>
+        <v>543416420</v>
       </c>
       <c r="Z12" s="13">
-        <v>543416420</v>
+        <v>549924160</v>
       </c>
       <c r="AA12" s="13">
-        <v>549924160</v>
+        <v>555480529</v>
       </c>
       <c r="AB12" s="13">
-        <v>555480529</v>
+        <v>536130875</v>
       </c>
       <c r="AC12" s="13">
-        <v>536130875</v>
+        <v>516305485</v>
       </c>
       <c r="AD12" s="13">
-        <v>516305485</v>
+        <v>545865235</v>
       </c>
       <c r="AE12" s="13">
-        <v>545865235</v>
+        <v>520958681</v>
       </c>
       <c r="AF12" s="13">
-        <v>520958681</v>
+        <v>542383943</v>
       </c>
       <c r="AG12" s="13">
-        <v>542383943</v>
+        <v>375426360</v>
       </c>
       <c r="AH12" s="13">
-        <v>375426360</v>
+        <v>446065394</v>
       </c>
       <c r="AI12" s="13">
-        <v>446065394</v>
+        <v>552395612</v>
       </c>
       <c r="AJ12" s="13">
-        <v>552395612</v>
+        <v>551685968</v>
       </c>
       <c r="AK12" s="13">
-        <v>551685968</v>
+        <v>551169258</v>
       </c>
       <c r="AL12" s="13">
-        <v>551169258</v>
+        <v>548405134</v>
       </c>
       <c r="AM12" s="13">
-        <v>548405134</v>
+        <v>580061446</v>
       </c>
       <c r="AN12" s="13">
-        <v>580061446</v>
+        <v>522939370</v>
       </c>
       <c r="AO12" s="13">
-        <v>522939370</v>
+        <v>536379292</v>
       </c>
       <c r="AP12" s="13">
-        <v>536379292</v>
+        <v>543087251</v>
       </c>
       <c r="AQ12" s="13">
-        <v>543087251</v>
+        <v>533728325</v>
       </c>
       <c r="AR12" s="13">
-        <v>533728325</v>
+        <v>534681699</v>
       </c>
       <c r="AS12" s="13">
-        <v>534681699</v>
+        <v>393015071</v>
       </c>
       <c r="AT12" s="13">
-        <v>393015071</v>
+        <v>550620859</v>
       </c>
       <c r="AU12" s="13">
-        <v>550620859</v>
+        <v>550710422</v>
       </c>
       <c r="AV12" s="13">
-        <v>550710422</v>
+        <v>546644459</v>
       </c>
       <c r="AW12" s="13">
-        <v>546644459</v>
+        <v>550240536</v>
       </c>
       <c r="AX12" s="13">
-        <v>550240536</v>
+        <v>541983692</v>
       </c>
       <c r="AY12" s="13">
-        <v>541983692</v>
+        <v>541550519</v>
       </c>
       <c r="AZ12" s="13">
-        <v>541550519</v>
+        <v>532382003</v>
       </c>
       <c r="BA12" s="13">
-        <v>532382003</v>
+        <v>530142393</v>
       </c>
       <c r="BB12" s="13">
-        <v>530142393</v>
+        <v>530319550</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1850,8 +1850,8 @@
       <c r="X14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="11" t="s">
-        <v>58</v>
+      <c r="Y14" s="11">
+        <v>0</v>
       </c>
       <c r="Z14" s="11">
         <v>0</v>
@@ -1880,8 +1880,8 @@
       <c r="AH14" s="11">
         <v>0</v>
       </c>
-      <c r="AI14" s="11">
-        <v>0</v>
+      <c r="AI14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ14" s="11" t="s">
         <v>58</v>
@@ -1913,17 +1913,17 @@
       <c r="AS14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="11" t="s">
-        <v>58</v>
+      <c r="AT14" s="11">
+        <v>0</v>
       </c>
       <c r="AU14" s="11">
         <v>0</v>
       </c>
-      <c r="AV14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW14" s="11" t="s">
-        <v>58</v>
+      <c r="AV14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="11">
+        <v>0</v>
       </c>
       <c r="AX14" s="11">
         <v>0</v>
@@ -2226,8 +2226,8 @@
       <c r="Y17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Z17" s="11">
+        <v>0</v>
       </c>
       <c r="AA17" s="11">
         <v>0</v>
@@ -2253,8 +2253,8 @@
       <c r="AH17" s="11">
         <v>0</v>
       </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>58</v>
@@ -2286,11 +2286,11 @@
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11">
-        <v>0</v>
+      <c r="AT17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV17" s="11" t="s">
         <v>58</v>
@@ -2380,8 +2380,8 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>0</v>
       </c>
       <c r="Z18" s="13">
         <v>0</v>
@@ -2538,94 +2538,94 @@
         <v>0</v>
       </c>
       <c r="Y19" s="15">
-        <v>0</v>
+        <v>543416420</v>
       </c>
       <c r="Z19" s="15">
-        <v>543416420</v>
+        <v>549924160</v>
       </c>
       <c r="AA19" s="15">
-        <v>549924160</v>
+        <v>555480529</v>
       </c>
       <c r="AB19" s="15">
-        <v>555480529</v>
+        <v>536130875</v>
       </c>
       <c r="AC19" s="15">
-        <v>536130875</v>
+        <v>516305485</v>
       </c>
       <c r="AD19" s="15">
-        <v>516305485</v>
+        <v>545865235</v>
       </c>
       <c r="AE19" s="15">
-        <v>545865235</v>
+        <v>520958681</v>
       </c>
       <c r="AF19" s="15">
-        <v>520958681</v>
+        <v>542383943</v>
       </c>
       <c r="AG19" s="15">
-        <v>542383943</v>
+        <v>375426360</v>
       </c>
       <c r="AH19" s="15">
-        <v>375426360</v>
+        <v>446065394</v>
       </c>
       <c r="AI19" s="15">
-        <v>446065394</v>
+        <v>552395612</v>
       </c>
       <c r="AJ19" s="15">
-        <v>552395612</v>
+        <v>551685968</v>
       </c>
       <c r="AK19" s="15">
-        <v>551685968</v>
+        <v>551169258</v>
       </c>
       <c r="AL19" s="15">
-        <v>551169258</v>
+        <v>548405134</v>
       </c>
       <c r="AM19" s="15">
-        <v>548405134</v>
+        <v>580061446</v>
       </c>
       <c r="AN19" s="15">
-        <v>580061446</v>
+        <v>522939370</v>
       </c>
       <c r="AO19" s="15">
-        <v>522939370</v>
+        <v>536379292</v>
       </c>
       <c r="AP19" s="15">
-        <v>536379292</v>
+        <v>543087251</v>
       </c>
       <c r="AQ19" s="15">
-        <v>543087251</v>
+        <v>533728325</v>
       </c>
       <c r="AR19" s="15">
-        <v>533728325</v>
+        <v>534681699</v>
       </c>
       <c r="AS19" s="15">
-        <v>534681699</v>
+        <v>393015071</v>
       </c>
       <c r="AT19" s="15">
-        <v>393015071</v>
+        <v>550620859</v>
       </c>
       <c r="AU19" s="15">
-        <v>550620859</v>
+        <v>550710422</v>
       </c>
       <c r="AV19" s="15">
-        <v>550710422</v>
+        <v>546644459</v>
       </c>
       <c r="AW19" s="15">
-        <v>546644459</v>
+        <v>550240536</v>
       </c>
       <c r="AX19" s="15">
-        <v>550240536</v>
+        <v>541983692</v>
       </c>
       <c r="AY19" s="15">
-        <v>541983692</v>
+        <v>541550519</v>
       </c>
       <c r="AZ19" s="15">
-        <v>541550519</v>
+        <v>532382003</v>
       </c>
       <c r="BA19" s="15">
-        <v>532382003</v>
+        <v>530142393</v>
       </c>
       <c r="BB19" s="15">
-        <v>530142393</v>
+        <v>530319550</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3130,95 +3130,95 @@
       <c r="X26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="11" t="s">
-        <v>58</v>
+      <c r="Y26" s="11">
+        <v>552947000</v>
       </c>
       <c r="Z26" s="11">
-        <v>552947000</v>
+        <v>535207000</v>
       </c>
       <c r="AA26" s="11">
-        <v>535207000</v>
+        <v>562026500</v>
       </c>
       <c r="AB26" s="11">
-        <v>562026500</v>
+        <v>548722900</v>
       </c>
       <c r="AC26" s="11">
-        <v>548722900</v>
+        <v>535195200</v>
       </c>
       <c r="AD26" s="11">
-        <v>535195200</v>
+        <v>540299430</v>
       </c>
       <c r="AE26" s="11">
-        <v>540299430</v>
+        <v>540990300</v>
       </c>
       <c r="AF26" s="11">
-        <v>540990300</v>
+        <v>540220900</v>
       </c>
       <c r="AG26" s="11">
-        <v>540220900</v>
+        <v>306334650</v>
       </c>
       <c r="AH26" s="11">
-        <v>306334650</v>
+        <v>422598000</v>
       </c>
       <c r="AI26" s="11">
-        <v>422598000</v>
+        <v>561370700</v>
       </c>
       <c r="AJ26" s="11">
-        <v>561370700</v>
+        <v>570347000</v>
       </c>
       <c r="AK26" s="11">
-        <v>570347000</v>
+        <v>575023900</v>
       </c>
       <c r="AL26" s="11">
-        <v>575023900</v>
+        <v>571840350</v>
       </c>
       <c r="AM26" s="11">
-        <v>571840350</v>
+        <v>577864000</v>
       </c>
       <c r="AN26" s="11">
-        <v>577864000</v>
+        <v>550731300</v>
       </c>
       <c r="AO26" s="11">
-        <v>550731300</v>
+        <v>540017500</v>
       </c>
       <c r="AP26" s="11">
-        <v>540017500</v>
+        <v>541895000</v>
       </c>
       <c r="AQ26" s="11">
-        <v>541895000</v>
+        <v>540287500</v>
       </c>
       <c r="AR26" s="11">
-        <v>540287500</v>
+        <v>520673900</v>
       </c>
       <c r="AS26" s="11">
-        <v>520673900</v>
+        <v>304236800</v>
       </c>
       <c r="AT26" s="11">
-        <v>304236800</v>
+        <v>540324000</v>
       </c>
       <c r="AU26" s="11">
-        <v>540324000</v>
+        <v>540164000</v>
       </c>
       <c r="AV26" s="11">
-        <v>540164000</v>
+        <v>550278000</v>
       </c>
       <c r="AW26" s="11">
-        <v>550278000</v>
+        <v>546768900</v>
       </c>
       <c r="AX26" s="11">
-        <v>546768900</v>
+        <v>541491000</v>
       </c>
       <c r="AY26" s="11">
-        <v>541491000</v>
+        <v>540126000</v>
       </c>
       <c r="AZ26" s="11">
-        <v>540126000</v>
+        <v>530290000</v>
       </c>
       <c r="BA26" s="11">
-        <v>530290000</v>
+        <v>530572500</v>
       </c>
       <c r="BB26" s="11">
-        <v>530572500</v>
+        <v>530221000</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3288,94 +3288,94 @@
         <v>0</v>
       </c>
       <c r="Y27" s="13">
-        <v>0</v>
+        <v>552947000</v>
       </c>
       <c r="Z27" s="13">
-        <v>552947000</v>
+        <v>535207000</v>
       </c>
       <c r="AA27" s="13">
-        <v>535207000</v>
+        <v>562026500</v>
       </c>
       <c r="AB27" s="13">
-        <v>562026500</v>
+        <v>548722900</v>
       </c>
       <c r="AC27" s="13">
-        <v>548722900</v>
+        <v>535195200</v>
       </c>
       <c r="AD27" s="13">
-        <v>535195200</v>
+        <v>540299430</v>
       </c>
       <c r="AE27" s="13">
-        <v>540299430</v>
+        <v>540990300</v>
       </c>
       <c r="AF27" s="13">
-        <v>540990300</v>
+        <v>540220900</v>
       </c>
       <c r="AG27" s="13">
-        <v>540220900</v>
+        <v>306334650</v>
       </c>
       <c r="AH27" s="13">
-        <v>306334650</v>
+        <v>422598000</v>
       </c>
       <c r="AI27" s="13">
-        <v>422598000</v>
+        <v>561370700</v>
       </c>
       <c r="AJ27" s="13">
-        <v>561370700</v>
+        <v>570347000</v>
       </c>
       <c r="AK27" s="13">
-        <v>570347000</v>
+        <v>575023900</v>
       </c>
       <c r="AL27" s="13">
-        <v>575023900</v>
+        <v>571840350</v>
       </c>
       <c r="AM27" s="13">
-        <v>571840350</v>
+        <v>577864000</v>
       </c>
       <c r="AN27" s="13">
-        <v>577864000</v>
+        <v>550731300</v>
       </c>
       <c r="AO27" s="13">
-        <v>550731300</v>
+        <v>540017500</v>
       </c>
       <c r="AP27" s="13">
-        <v>540017500</v>
+        <v>541895000</v>
       </c>
       <c r="AQ27" s="13">
-        <v>541895000</v>
+        <v>540287500</v>
       </c>
       <c r="AR27" s="13">
-        <v>540287500</v>
+        <v>520673900</v>
       </c>
       <c r="AS27" s="13">
-        <v>520673900</v>
+        <v>304236800</v>
       </c>
       <c r="AT27" s="13">
-        <v>304236800</v>
+        <v>540324000</v>
       </c>
       <c r="AU27" s="13">
-        <v>540324000</v>
+        <v>540164000</v>
       </c>
       <c r="AV27" s="13">
-        <v>540164000</v>
+        <v>550278000</v>
       </c>
       <c r="AW27" s="13">
-        <v>550278000</v>
+        <v>546768900</v>
       </c>
       <c r="AX27" s="13">
-        <v>546768900</v>
+        <v>541491000</v>
       </c>
       <c r="AY27" s="13">
-        <v>541491000</v>
+        <v>540126000</v>
       </c>
       <c r="AZ27" s="13">
-        <v>540126000</v>
+        <v>530290000</v>
       </c>
       <c r="BA27" s="13">
-        <v>530290000</v>
+        <v>530572500</v>
       </c>
       <c r="BB27" s="13">
-        <v>530572500</v>
+        <v>530221000</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3503,8 +3503,8 @@
       <c r="X29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="11" t="s">
-        <v>58</v>
+      <c r="Y29" s="11">
+        <v>0</v>
       </c>
       <c r="Z29" s="11">
         <v>0</v>
@@ -3533,8 +3533,8 @@
       <c r="AH29" s="11">
         <v>0</v>
       </c>
-      <c r="AI29" s="11">
-        <v>0</v>
+      <c r="AI29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ29" s="11" t="s">
         <v>58</v>
@@ -3566,17 +3566,17 @@
       <c r="AS29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT29" s="11" t="s">
-        <v>58</v>
+      <c r="AT29" s="11">
+        <v>0</v>
       </c>
       <c r="AU29" s="11">
         <v>0</v>
       </c>
-      <c r="AV29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW29" s="11" t="s">
-        <v>58</v>
+      <c r="AV29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="11">
+        <v>0</v>
       </c>
       <c r="AX29" s="11">
         <v>0</v>
@@ -3879,8 +3879,8 @@
       <c r="Y32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="11" t="s">
-        <v>58</v>
+      <c r="Z32" s="11">
+        <v>0</v>
       </c>
       <c r="AA32" s="11">
         <v>0</v>
@@ -3906,8 +3906,8 @@
       <c r="AH32" s="11">
         <v>0</v>
       </c>
-      <c r="AI32" s="11">
-        <v>0</v>
+      <c r="AI32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ32" s="11" t="s">
         <v>58</v>
@@ -3939,11 +3939,11 @@
       <c r="AS32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU32" s="11">
-        <v>0</v>
+      <c r="AT32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV32" s="11" t="s">
         <v>58</v>
@@ -4033,8 +4033,8 @@
       <c r="X33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="13" t="s">
-        <v>58</v>
+      <c r="Y33" s="13">
+        <v>0</v>
       </c>
       <c r="Z33" s="13">
         <v>0</v>
@@ -4249,17 +4249,17 @@
       <c r="X35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="11" t="s">
-        <v>58</v>
+      <c r="Y35" s="11">
+        <v>0</v>
       </c>
       <c r="Z35" s="11">
         <v>0</v>
       </c>
       <c r="AA35" s="11">
-        <v>0</v>
+        <v>-850000</v>
       </c>
       <c r="AB35" s="11">
-        <v>-850000</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="11">
         <v>0</v>
@@ -4274,29 +4274,29 @@
         <v>0</v>
       </c>
       <c r="AG35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="11">
         <v>-1594000</v>
       </c>
+      <c r="AH35" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI35" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AJ35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK35" s="11" t="s">
-        <v>58</v>
+      <c r="AK35" s="11">
+        <v>-2506000</v>
       </c>
       <c r="AL35" s="11">
-        <v>-2506000</v>
+        <v>-1700000</v>
       </c>
       <c r="AM35" s="11">
-        <v>-1700000</v>
-      </c>
-      <c r="AN35" s="11">
         <v>-5100000</v>
       </c>
+      <c r="AN35" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO35" s="11" t="s">
         <v>58</v>
       </c>
@@ -4306,17 +4306,17 @@
       <c r="AQ35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR35" s="11" t="s">
-        <v>58</v>
+      <c r="AR35" s="11">
+        <v>-100000</v>
       </c>
       <c r="AS35" s="11">
-        <v>-100000</v>
+        <v>-405000</v>
       </c>
       <c r="AT35" s="11">
-        <v>-405000</v>
-      </c>
-      <c r="AU35" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV35" s="11" t="s">
         <v>58</v>
@@ -4324,20 +4324,20 @@
       <c r="AW35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX35" s="11" t="s">
-        <v>58</v>
+      <c r="AX35" s="11">
+        <v>-1120000</v>
       </c>
       <c r="AY35" s="11">
-        <v>-1120000</v>
-      </c>
-      <c r="AZ35" s="11">
         <v>-80000</v>
       </c>
-      <c r="BA35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB35" s="11">
-        <v>0</v>
+      <c r="AZ35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA35" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4406,17 +4406,17 @@
       <c r="X36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="13" t="s">
-        <v>58</v>
+      <c r="Y36" s="13">
+        <v>0</v>
       </c>
       <c r="Z36" s="13">
         <v>0</v>
       </c>
       <c r="AA36" s="13">
-        <v>0</v>
+        <v>-850000</v>
       </c>
       <c r="AB36" s="13">
-        <v>-850000</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="13">
         <v>0</v>
@@ -4431,10 +4431,10 @@
         <v>0</v>
       </c>
       <c r="AG36" s="13">
-        <v>0</v>
+        <v>-1594000</v>
       </c>
       <c r="AH36" s="13">
-        <v>-1594000</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="13">
         <v>0</v>
@@ -4443,16 +4443,16 @@
         <v>0</v>
       </c>
       <c r="AK36" s="13">
-        <v>0</v>
+        <v>-2506000</v>
       </c>
       <c r="AL36" s="13">
-        <v>-2506000</v>
+        <v>-1700000</v>
       </c>
       <c r="AM36" s="13">
-        <v>-1700000</v>
+        <v>-5100000</v>
       </c>
       <c r="AN36" s="13">
-        <v>-5100000</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="13">
         <v>0</v>
@@ -4464,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="AR36" s="13">
-        <v>0</v>
+        <v>-100000</v>
       </c>
       <c r="AS36" s="13">
-        <v>-100000</v>
+        <v>-405000</v>
       </c>
       <c r="AT36" s="13">
-        <v>-405000</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="13">
         <v>0</v>
@@ -4482,13 +4482,13 @@
         <v>0</v>
       </c>
       <c r="AX36" s="13">
-        <v>0</v>
+        <v>-1120000</v>
       </c>
       <c r="AY36" s="13">
-        <v>-1120000</v>
+        <v>-80000</v>
       </c>
       <c r="AZ36" s="13">
-        <v>-80000</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="13">
         <v>0</v>
@@ -4564,94 +4564,94 @@
         <v>0</v>
       </c>
       <c r="Y37" s="15">
-        <v>0</v>
+        <v>552947000</v>
       </c>
       <c r="Z37" s="15">
-        <v>552947000</v>
+        <v>535207000</v>
       </c>
       <c r="AA37" s="15">
-        <v>535207000</v>
+        <v>561176500</v>
       </c>
       <c r="AB37" s="15">
-        <v>561176500</v>
+        <v>548722900</v>
       </c>
       <c r="AC37" s="15">
-        <v>548722900</v>
+        <v>535195200</v>
       </c>
       <c r="AD37" s="15">
-        <v>535195200</v>
+        <v>540299430</v>
       </c>
       <c r="AE37" s="15">
-        <v>540299430</v>
+        <v>540990300</v>
       </c>
       <c r="AF37" s="15">
-        <v>540990300</v>
+        <v>540220900</v>
       </c>
       <c r="AG37" s="15">
-        <v>540220900</v>
+        <v>304740650</v>
       </c>
       <c r="AH37" s="15">
-        <v>304740650</v>
+        <v>422598000</v>
       </c>
       <c r="AI37" s="15">
-        <v>422598000</v>
+        <v>561370700</v>
       </c>
       <c r="AJ37" s="15">
-        <v>561370700</v>
+        <v>570347000</v>
       </c>
       <c r="AK37" s="15">
-        <v>570347000</v>
+        <v>572517900</v>
       </c>
       <c r="AL37" s="15">
-        <v>572517900</v>
+        <v>570140350</v>
       </c>
       <c r="AM37" s="15">
-        <v>570140350</v>
+        <v>572764000</v>
       </c>
       <c r="AN37" s="15">
-        <v>572764000</v>
+        <v>550731300</v>
       </c>
       <c r="AO37" s="15">
-        <v>550731300</v>
+        <v>540017500</v>
       </c>
       <c r="AP37" s="15">
-        <v>540017500</v>
+        <v>541895000</v>
       </c>
       <c r="AQ37" s="15">
-        <v>541895000</v>
+        <v>540287500</v>
       </c>
       <c r="AR37" s="15">
-        <v>540287500</v>
+        <v>520573900</v>
       </c>
       <c r="AS37" s="15">
-        <v>520573900</v>
+        <v>303831800</v>
       </c>
       <c r="AT37" s="15">
-        <v>303831800</v>
+        <v>540324000</v>
       </c>
       <c r="AU37" s="15">
-        <v>540324000</v>
+        <v>540164000</v>
       </c>
       <c r="AV37" s="15">
-        <v>540164000</v>
+        <v>550278000</v>
       </c>
       <c r="AW37" s="15">
-        <v>550278000</v>
+        <v>546768900</v>
       </c>
       <c r="AX37" s="15">
-        <v>546768900</v>
+        <v>540371000</v>
       </c>
       <c r="AY37" s="15">
-        <v>540371000</v>
+        <v>540046000</v>
       </c>
       <c r="AZ37" s="15">
-        <v>540046000</v>
+        <v>530290000</v>
       </c>
       <c r="BA37" s="15">
-        <v>530290000</v>
+        <v>530572500</v>
       </c>
       <c r="BB37" s="15">
-        <v>530572500</v>
+        <v>530221000</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5156,95 +5156,95 @@
       <c r="X44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>58</v>
+      <c r="Y44" s="11">
+        <v>100422</v>
       </c>
       <c r="Z44" s="11">
-        <v>100422</v>
+        <v>97383</v>
       </c>
       <c r="AA44" s="11">
-        <v>97383</v>
+        <v>210381</v>
       </c>
       <c r="AB44" s="11">
-        <v>210381</v>
+        <v>206242</v>
       </c>
       <c r="AC44" s="11">
-        <v>206242</v>
+        <v>200686</v>
       </c>
       <c r="AD44" s="11">
-        <v>200686</v>
+        <v>201418</v>
       </c>
       <c r="AE44" s="11">
-        <v>201418</v>
+        <v>205160</v>
       </c>
       <c r="AF44" s="11">
-        <v>205160</v>
+        <v>200157</v>
       </c>
       <c r="AG44" s="11">
-        <v>200157</v>
+        <v>115725</v>
       </c>
       <c r="AH44" s="11">
-        <v>115725</v>
+        <v>193687</v>
       </c>
       <c r="AI44" s="11">
-        <v>193687</v>
+        <v>273839</v>
       </c>
       <c r="AJ44" s="11">
-        <v>273839</v>
+        <v>280558</v>
       </c>
       <c r="AK44" s="11">
-        <v>280558</v>
+        <v>281188</v>
       </c>
       <c r="AL44" s="11">
-        <v>281188</v>
+        <v>277959</v>
       </c>
       <c r="AM44" s="11">
-        <v>277959</v>
+        <v>284777</v>
       </c>
       <c r="AN44" s="11">
-        <v>284777</v>
+        <v>345441</v>
       </c>
       <c r="AO44" s="11">
-        <v>345441</v>
+        <v>338748</v>
       </c>
       <c r="AP44" s="11">
-        <v>338748</v>
+        <v>336170</v>
       </c>
       <c r="AQ44" s="11">
-        <v>336170</v>
+        <v>335855</v>
       </c>
       <c r="AR44" s="11">
-        <v>335855</v>
+        <v>321010</v>
       </c>
       <c r="AS44" s="11">
-        <v>321010</v>
+        <v>191820</v>
       </c>
       <c r="AT44" s="11">
-        <v>191820</v>
+        <v>475026</v>
       </c>
       <c r="AU44" s="11">
-        <v>475026</v>
+        <v>481181</v>
       </c>
       <c r="AV44" s="11">
-        <v>481181</v>
+        <v>486313</v>
       </c>
       <c r="AW44" s="11">
-        <v>486313</v>
+        <v>483642</v>
       </c>
       <c r="AX44" s="11">
-        <v>483642</v>
+        <v>480308</v>
       </c>
       <c r="AY44" s="11">
-        <v>480308</v>
+        <v>477509</v>
       </c>
       <c r="AZ44" s="11">
-        <v>477509</v>
+        <v>468121</v>
       </c>
       <c r="BA44" s="11">
-        <v>468121</v>
+        <v>469206</v>
       </c>
       <c r="BB44" s="11">
-        <v>469206</v>
+        <v>467583</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5314,94 +5314,94 @@
         <v>0</v>
       </c>
       <c r="Y45" s="13">
-        <v>0</v>
+        <v>100422</v>
       </c>
       <c r="Z45" s="13">
-        <v>100422</v>
+        <v>97383</v>
       </c>
       <c r="AA45" s="13">
-        <v>97383</v>
+        <v>210381</v>
       </c>
       <c r="AB45" s="13">
-        <v>210381</v>
+        <v>206242</v>
       </c>
       <c r="AC45" s="13">
-        <v>206242</v>
+        <v>200686</v>
       </c>
       <c r="AD45" s="13">
-        <v>200686</v>
+        <v>201418</v>
       </c>
       <c r="AE45" s="13">
-        <v>201418</v>
+        <v>205160</v>
       </c>
       <c r="AF45" s="13">
-        <v>205160</v>
+        <v>200157</v>
       </c>
       <c r="AG45" s="13">
-        <v>200157</v>
+        <v>115725</v>
       </c>
       <c r="AH45" s="13">
-        <v>115725</v>
+        <v>193687</v>
       </c>
       <c r="AI45" s="13">
-        <v>193687</v>
+        <v>273839</v>
       </c>
       <c r="AJ45" s="13">
-        <v>273839</v>
+        <v>280558</v>
       </c>
       <c r="AK45" s="13">
-        <v>280558</v>
+        <v>281188</v>
       </c>
       <c r="AL45" s="13">
-        <v>281188</v>
+        <v>277959</v>
       </c>
       <c r="AM45" s="13">
-        <v>277959</v>
+        <v>284777</v>
       </c>
       <c r="AN45" s="13">
-        <v>284777</v>
+        <v>345441</v>
       </c>
       <c r="AO45" s="13">
-        <v>345441</v>
+        <v>338748</v>
       </c>
       <c r="AP45" s="13">
-        <v>338748</v>
+        <v>336170</v>
       </c>
       <c r="AQ45" s="13">
-        <v>336170</v>
+        <v>335855</v>
       </c>
       <c r="AR45" s="13">
-        <v>335855</v>
+        <v>321010</v>
       </c>
       <c r="AS45" s="13">
-        <v>321010</v>
+        <v>191820</v>
       </c>
       <c r="AT45" s="13">
-        <v>191820</v>
+        <v>475026</v>
       </c>
       <c r="AU45" s="13">
-        <v>475026</v>
+        <v>481181</v>
       </c>
       <c r="AV45" s="13">
-        <v>481181</v>
+        <v>486313</v>
       </c>
       <c r="AW45" s="13">
-        <v>486313</v>
+        <v>483642</v>
       </c>
       <c r="AX45" s="13">
-        <v>483642</v>
+        <v>480308</v>
       </c>
       <c r="AY45" s="13">
-        <v>480308</v>
+        <v>477509</v>
       </c>
       <c r="AZ45" s="13">
-        <v>477509</v>
+        <v>468121</v>
       </c>
       <c r="BA45" s="13">
-        <v>468121</v>
+        <v>469206</v>
       </c>
       <c r="BB45" s="13">
-        <v>469206</v>
+        <v>467583</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5529,8 +5529,8 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
+      <c r="Y47" s="11">
+        <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>0</v>
@@ -5905,8 +5905,8 @@
       <c r="Y50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z50" s="11" t="s">
-        <v>58</v>
+      <c r="Z50" s="11">
+        <v>0</v>
       </c>
       <c r="AA50" s="11">
         <v>0</v>
@@ -6061,8 +6061,8 @@
       <c r="X51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="13" t="s">
-        <v>58</v>
+      <c r="Y51" s="13">
+        <v>0</v>
       </c>
       <c r="Z51" s="13">
         <v>0</v>
@@ -6277,17 +6277,17 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>0</v>
       </c>
       <c r="Z53" s="11">
         <v>0</v>
       </c>
       <c r="AA53" s="11">
-        <v>0</v>
+        <v>-132</v>
       </c>
       <c r="AB53" s="11">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="11">
         <v>0</v>
@@ -6302,28 +6302,28 @@
         <v>0</v>
       </c>
       <c r="AG53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="11">
         <v>-259</v>
       </c>
+      <c r="AH53" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI53" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AJ53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK53" s="11" t="s">
-        <v>58</v>
+      <c r="AK53" s="11">
+        <v>-1228</v>
       </c>
       <c r="AL53" s="11">
-        <v>-1228</v>
+        <v>-841</v>
       </c>
       <c r="AM53" s="11">
-        <v>-841</v>
+        <v>-2027</v>
       </c>
       <c r="AN53" s="11">
-        <v>-2027</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="11">
         <v>0</v>
@@ -6335,13 +6335,13 @@
         <v>0</v>
       </c>
       <c r="AR53" s="11">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AS53" s="11">
-        <v>-19</v>
+        <v>-236</v>
       </c>
       <c r="AT53" s="11">
-        <v>-236</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="11">
         <v>0</v>
@@ -6353,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="AX53" s="11">
-        <v>0</v>
+        <v>-946</v>
       </c>
       <c r="AY53" s="11">
-        <v>-946</v>
+        <v>-71</v>
       </c>
       <c r="AZ53" s="11">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="11">
         <v>0</v>
@@ -6436,17 +6436,17 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>0</v>
       </c>
       <c r="Z54" s="13">
         <v>0</v>
       </c>
       <c r="AA54" s="13">
-        <v>0</v>
+        <v>-132</v>
       </c>
       <c r="AB54" s="13">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="13">
         <v>0</v>
@@ -6461,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="AG54" s="13">
-        <v>0</v>
+        <v>-259</v>
       </c>
       <c r="AH54" s="13">
-        <v>-259</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="13">
         <v>0</v>
@@ -6473,16 +6473,16 @@
         <v>0</v>
       </c>
       <c r="AK54" s="13">
-        <v>0</v>
+        <v>-1228</v>
       </c>
       <c r="AL54" s="13">
-        <v>-1228</v>
+        <v>-841</v>
       </c>
       <c r="AM54" s="13">
-        <v>-841</v>
+        <v>-2027</v>
       </c>
       <c r="AN54" s="13">
-        <v>-2027</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="13">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         <v>0</v>
       </c>
       <c r="AR54" s="13">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AS54" s="13">
-        <v>-19</v>
+        <v>-236</v>
       </c>
       <c r="AT54" s="13">
-        <v>-236</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="13">
         <v>0</v>
@@ -6512,13 +6512,13 @@
         <v>0</v>
       </c>
       <c r="AX54" s="13">
-        <v>0</v>
+        <v>-946</v>
       </c>
       <c r="AY54" s="13">
-        <v>-946</v>
+        <v>-71</v>
       </c>
       <c r="AZ54" s="13">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="13">
         <v>0</v>
@@ -6652,8 +6652,8 @@
       <c r="X56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>58</v>
+      <c r="Y56" s="11">
+        <v>0</v>
       </c>
       <c r="Z56" s="11">
         <v>0</v>
@@ -6810,94 +6810,94 @@
         <v>0</v>
       </c>
       <c r="Y57" s="13">
-        <v>0</v>
+        <v>100422</v>
       </c>
       <c r="Z57" s="13">
-        <v>100422</v>
+        <v>97383</v>
       </c>
       <c r="AA57" s="13">
-        <v>97383</v>
+        <v>210249</v>
       </c>
       <c r="AB57" s="13">
-        <v>210249</v>
+        <v>206242</v>
       </c>
       <c r="AC57" s="13">
-        <v>206242</v>
+        <v>200686</v>
       </c>
       <c r="AD57" s="13">
-        <v>200686</v>
+        <v>201418</v>
       </c>
       <c r="AE57" s="13">
-        <v>201418</v>
+        <v>205160</v>
       </c>
       <c r="AF57" s="13">
-        <v>205160</v>
+        <v>200157</v>
       </c>
       <c r="AG57" s="13">
-        <v>200157</v>
+        <v>115466</v>
       </c>
       <c r="AH57" s="13">
-        <v>115466</v>
+        <v>193687</v>
       </c>
       <c r="AI57" s="13">
-        <v>193687</v>
+        <v>273839</v>
       </c>
       <c r="AJ57" s="13">
-        <v>273839</v>
+        <v>280558</v>
       </c>
       <c r="AK57" s="13">
-        <v>280558</v>
+        <v>279960</v>
       </c>
       <c r="AL57" s="13">
-        <v>279960</v>
+        <v>277118</v>
       </c>
       <c r="AM57" s="13">
-        <v>277118</v>
+        <v>282750</v>
       </c>
       <c r="AN57" s="13">
-        <v>282750</v>
+        <v>345441</v>
       </c>
       <c r="AO57" s="13">
-        <v>345441</v>
+        <v>338748</v>
       </c>
       <c r="AP57" s="13">
-        <v>338748</v>
+        <v>336170</v>
       </c>
       <c r="AQ57" s="13">
-        <v>336170</v>
+        <v>335855</v>
       </c>
       <c r="AR57" s="13">
-        <v>335855</v>
+        <v>320991</v>
       </c>
       <c r="AS57" s="13">
-        <v>320991</v>
+        <v>191584</v>
       </c>
       <c r="AT57" s="13">
-        <v>191584</v>
+        <v>475026</v>
       </c>
       <c r="AU57" s="13">
-        <v>475026</v>
+        <v>481181</v>
       </c>
       <c r="AV57" s="13">
-        <v>481181</v>
+        <v>486313</v>
       </c>
       <c r="AW57" s="13">
-        <v>486313</v>
+        <v>483642</v>
       </c>
       <c r="AX57" s="13">
-        <v>483642</v>
+        <v>479362</v>
       </c>
       <c r="AY57" s="13">
-        <v>479362</v>
+        <v>477438</v>
       </c>
       <c r="AZ57" s="13">
-        <v>477438</v>
+        <v>468121</v>
       </c>
       <c r="BA57" s="13">
-        <v>468121</v>
+        <v>469206</v>
       </c>
       <c r="BB57" s="13">
-        <v>469206</v>
+        <v>467583</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7402,95 +7402,95 @@
       <c r="X64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="11" t="s">
-        <v>58</v>
+      <c r="Y64" s="11">
+        <v>182</v>
       </c>
       <c r="Z64" s="11">
         <v>182</v>
       </c>
       <c r="AA64" s="11">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="AB64" s="11">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AC64" s="11">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AD64" s="11">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AE64" s="11">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF64" s="11">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AG64" s="11">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AH64" s="11">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="AI64" s="11">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="AJ64" s="11">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AK64" s="11">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AL64" s="11">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AM64" s="11">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AN64" s="11">
-        <v>493</v>
+        <v>627</v>
       </c>
       <c r="AO64" s="11">
         <v>627</v>
       </c>
       <c r="AP64" s="11">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AQ64" s="11">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AR64" s="11">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AS64" s="11">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="AT64" s="11">
-        <v>631</v>
+        <v>879</v>
       </c>
       <c r="AU64" s="11">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="AV64" s="11">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="AW64" s="11">
+        <v>885</v>
+      </c>
+      <c r="AX64" s="11">
+        <v>887</v>
+      </c>
+      <c r="AY64" s="11">
         <v>884</v>
       </c>
-      <c r="AX64" s="11">
-        <v>885</v>
-      </c>
-      <c r="AY64" s="11">
-        <v>887</v>
-      </c>
       <c r="AZ64" s="11">
+        <v>883</v>
+      </c>
+      <c r="BA64" s="11">
         <v>884</v>
       </c>
-      <c r="BA64" s="11">
-        <v>883</v>
-      </c>
       <c r="BB64" s="11">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -7621,8 +7621,8 @@
       <c r="Y66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z66" s="11" t="s">
-        <v>58</v>
+      <c r="Z66" s="11">
+        <v>0</v>
       </c>
       <c r="AA66" s="11">
         <v>0</v>

--- a/database/industries/darou/dekapsul/product/monthly_seprated.xlsx
+++ b/database/industries/darou/dekapsul/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dekapsul\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AB28F-622E-4D4D-AE58-50576A7B3DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A585F8-0C12-4509-B7AA-C498A381FBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دکپسول-تولید ژلاتین کپسول ایران</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -742,12 +742,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -802,7 +802,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -971,7 +971,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1140,7 +1140,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1352,7 +1352,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1471,104 +1471,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>543416420</v>
+      </c>
+      <c r="X11" s="11">
+        <v>549924160</v>
       </c>
       <c r="Y11" s="11">
-        <v>543416420</v>
+        <v>555480529</v>
       </c>
       <c r="Z11" s="11">
-        <v>549924160</v>
+        <v>536130875</v>
       </c>
       <c r="AA11" s="11">
-        <v>555480529</v>
+        <v>516305485</v>
       </c>
       <c r="AB11" s="11">
-        <v>536130875</v>
+        <v>545865235</v>
       </c>
       <c r="AC11" s="11">
-        <v>516305485</v>
+        <v>520958681</v>
       </c>
       <c r="AD11" s="11">
-        <v>545865235</v>
+        <v>542383943</v>
       </c>
       <c r="AE11" s="11">
-        <v>520958681</v>
+        <v>375426360</v>
       </c>
       <c r="AF11" s="11">
-        <v>542383943</v>
+        <v>446065394</v>
       </c>
       <c r="AG11" s="11">
-        <v>375426360</v>
+        <v>552395612</v>
       </c>
       <c r="AH11" s="11">
-        <v>446065394</v>
+        <v>551685968</v>
       </c>
       <c r="AI11" s="11">
-        <v>552395612</v>
+        <v>551169258</v>
       </c>
       <c r="AJ11" s="11">
-        <v>551685968</v>
+        <v>548405134</v>
       </c>
       <c r="AK11" s="11">
-        <v>551169258</v>
+        <v>580061446</v>
       </c>
       <c r="AL11" s="11">
-        <v>548405134</v>
+        <v>522939370</v>
       </c>
       <c r="AM11" s="11">
-        <v>580061446</v>
+        <v>536379292</v>
       </c>
       <c r="AN11" s="11">
-        <v>522939370</v>
+        <v>543087251</v>
       </c>
       <c r="AO11" s="11">
-        <v>536379292</v>
+        <v>533728325</v>
       </c>
       <c r="AP11" s="11">
-        <v>543087251</v>
+        <v>534681699</v>
       </c>
       <c r="AQ11" s="11">
-        <v>533728325</v>
+        <v>393015071</v>
       </c>
       <c r="AR11" s="11">
-        <v>534681699</v>
+        <v>550620859</v>
       </c>
       <c r="AS11" s="11">
-        <v>393015071</v>
+        <v>550710422</v>
       </c>
       <c r="AT11" s="11">
-        <v>550620859</v>
+        <v>546644459</v>
       </c>
       <c r="AU11" s="11">
-        <v>550710422</v>
+        <v>550240536</v>
       </c>
       <c r="AV11" s="11">
-        <v>546644459</v>
+        <v>541983692</v>
       </c>
       <c r="AW11" s="11">
-        <v>550240536</v>
+        <v>541550519</v>
       </c>
       <c r="AX11" s="11">
-        <v>541983692</v>
+        <v>532382003</v>
       </c>
       <c r="AY11" s="11">
-        <v>541550519</v>
+        <v>530142393</v>
       </c>
       <c r="AZ11" s="11">
-        <v>532382003</v>
+        <v>530319550</v>
       </c>
       <c r="BA11" s="11">
-        <v>530142393</v>
+        <v>531609934</v>
       </c>
       <c r="BB11" s="11">
-        <v>530319550</v>
+        <v>530239017</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1629,103 +1629,103 @@
         <v>0</v>
       </c>
       <c r="W12" s="13">
-        <v>0</v>
+        <v>543416420</v>
       </c>
       <c r="X12" s="13">
-        <v>0</v>
+        <v>549924160</v>
       </c>
       <c r="Y12" s="13">
-        <v>543416420</v>
+        <v>555480529</v>
       </c>
       <c r="Z12" s="13">
-        <v>549924160</v>
+        <v>536130875</v>
       </c>
       <c r="AA12" s="13">
-        <v>555480529</v>
+        <v>516305485</v>
       </c>
       <c r="AB12" s="13">
-        <v>536130875</v>
+        <v>545865235</v>
       </c>
       <c r="AC12" s="13">
-        <v>516305485</v>
+        <v>520958681</v>
       </c>
       <c r="AD12" s="13">
-        <v>545865235</v>
+        <v>542383943</v>
       </c>
       <c r="AE12" s="13">
-        <v>520958681</v>
+        <v>375426360</v>
       </c>
       <c r="AF12" s="13">
-        <v>542383943</v>
+        <v>446065394</v>
       </c>
       <c r="AG12" s="13">
-        <v>375426360</v>
+        <v>552395612</v>
       </c>
       <c r="AH12" s="13">
-        <v>446065394</v>
+        <v>551685968</v>
       </c>
       <c r="AI12" s="13">
-        <v>552395612</v>
+        <v>551169258</v>
       </c>
       <c r="AJ12" s="13">
-        <v>551685968</v>
+        <v>548405134</v>
       </c>
       <c r="AK12" s="13">
-        <v>551169258</v>
+        <v>580061446</v>
       </c>
       <c r="AL12" s="13">
-        <v>548405134</v>
+        <v>522939370</v>
       </c>
       <c r="AM12" s="13">
-        <v>580061446</v>
+        <v>536379292</v>
       </c>
       <c r="AN12" s="13">
-        <v>522939370</v>
+        <v>543087251</v>
       </c>
       <c r="AO12" s="13">
-        <v>536379292</v>
+        <v>533728325</v>
       </c>
       <c r="AP12" s="13">
-        <v>543087251</v>
+        <v>534681699</v>
       </c>
       <c r="AQ12" s="13">
-        <v>533728325</v>
+        <v>393015071</v>
       </c>
       <c r="AR12" s="13">
-        <v>534681699</v>
+        <v>550620859</v>
       </c>
       <c r="AS12" s="13">
-        <v>393015071</v>
+        <v>550710422</v>
       </c>
       <c r="AT12" s="13">
-        <v>550620859</v>
+        <v>546644459</v>
       </c>
       <c r="AU12" s="13">
-        <v>550710422</v>
+        <v>550240536</v>
       </c>
       <c r="AV12" s="13">
-        <v>546644459</v>
+        <v>541983692</v>
       </c>
       <c r="AW12" s="13">
-        <v>550240536</v>
+        <v>541550519</v>
       </c>
       <c r="AX12" s="13">
-        <v>541983692</v>
+        <v>532382003</v>
       </c>
       <c r="AY12" s="13">
-        <v>541550519</v>
+        <v>530142393</v>
       </c>
       <c r="AZ12" s="13">
-        <v>532382003</v>
+        <v>530319550</v>
       </c>
       <c r="BA12" s="13">
-        <v>530142393</v>
+        <v>531609934</v>
       </c>
       <c r="BB12" s="13">
-        <v>530319550</v>
+        <v>530239017</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
@@ -1844,11 +1844,11 @@
       <c r="V14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>58</v>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
       </c>
       <c r="Y14" s="11">
         <v>0</v>
@@ -1874,11 +1874,11 @@
       <c r="AF14" s="11">
         <v>0</v>
       </c>
-      <c r="AG14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="11">
-        <v>0</v>
+      <c r="AG14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>58</v>
@@ -1907,11 +1907,11 @@
       <c r="AQ14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>58</v>
+      <c r="AR14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="11">
+        <v>0</v>
       </c>
       <c r="AT14" s="11">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>61</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2220,11 +2220,11 @@
       <c r="W17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="X17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>0</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -2247,11 +2247,11 @@
       <c r="AF17" s="11">
         <v>0</v>
       </c>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>58</v>
@@ -2280,14 +2280,14 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
       </c>
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11">
-        <v>0</v>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>58</v>
@@ -2314,7 +2314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>63</v>
       </c>
@@ -2374,11 +2374,11 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0</v>
       </c>
       <c r="Y18" s="13">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>64</v>
       </c>
@@ -2532,103 +2532,103 @@
         <v>0</v>
       </c>
       <c r="W19" s="15">
-        <v>0</v>
+        <v>543416420</v>
       </c>
       <c r="X19" s="15">
-        <v>0</v>
+        <v>549924160</v>
       </c>
       <c r="Y19" s="15">
-        <v>543416420</v>
+        <v>555480529</v>
       </c>
       <c r="Z19" s="15">
-        <v>549924160</v>
+        <v>536130875</v>
       </c>
       <c r="AA19" s="15">
-        <v>555480529</v>
+        <v>516305485</v>
       </c>
       <c r="AB19" s="15">
-        <v>536130875</v>
+        <v>545865235</v>
       </c>
       <c r="AC19" s="15">
-        <v>516305485</v>
+        <v>520958681</v>
       </c>
       <c r="AD19" s="15">
-        <v>545865235</v>
+        <v>542383943</v>
       </c>
       <c r="AE19" s="15">
-        <v>520958681</v>
+        <v>375426360</v>
       </c>
       <c r="AF19" s="15">
-        <v>542383943</v>
+        <v>446065394</v>
       </c>
       <c r="AG19" s="15">
-        <v>375426360</v>
+        <v>552395612</v>
       </c>
       <c r="AH19" s="15">
-        <v>446065394</v>
+        <v>551685968</v>
       </c>
       <c r="AI19" s="15">
-        <v>552395612</v>
+        <v>551169258</v>
       </c>
       <c r="AJ19" s="15">
-        <v>551685968</v>
+        <v>548405134</v>
       </c>
       <c r="AK19" s="15">
-        <v>551169258</v>
+        <v>580061446</v>
       </c>
       <c r="AL19" s="15">
-        <v>548405134</v>
+        <v>522939370</v>
       </c>
       <c r="AM19" s="15">
-        <v>580061446</v>
+        <v>536379292</v>
       </c>
       <c r="AN19" s="15">
-        <v>522939370</v>
+        <v>543087251</v>
       </c>
       <c r="AO19" s="15">
-        <v>536379292</v>
+        <v>533728325</v>
       </c>
       <c r="AP19" s="15">
-        <v>543087251</v>
+        <v>534681699</v>
       </c>
       <c r="AQ19" s="15">
-        <v>533728325</v>
+        <v>393015071</v>
       </c>
       <c r="AR19" s="15">
-        <v>534681699</v>
+        <v>550620859</v>
       </c>
       <c r="AS19" s="15">
-        <v>393015071</v>
+        <v>550710422</v>
       </c>
       <c r="AT19" s="15">
-        <v>550620859</v>
+        <v>546644459</v>
       </c>
       <c r="AU19" s="15">
-        <v>550710422</v>
+        <v>550240536</v>
       </c>
       <c r="AV19" s="15">
-        <v>546644459</v>
+        <v>541983692</v>
       </c>
       <c r="AW19" s="15">
-        <v>550240536</v>
+        <v>541550519</v>
       </c>
       <c r="AX19" s="15">
-        <v>541983692</v>
+        <v>532382003</v>
       </c>
       <c r="AY19" s="15">
-        <v>541550519</v>
+        <v>530142393</v>
       </c>
       <c r="AZ19" s="15">
-        <v>532382003</v>
+        <v>530319550</v>
       </c>
       <c r="BA19" s="15">
-        <v>530142393</v>
+        <v>531609934</v>
       </c>
       <c r="BB19" s="15">
-        <v>530319550</v>
+        <v>530239017</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2683,7 +2683,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2738,7 +2738,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2793,7 +2793,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>65</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3005,7 +3005,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>66</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>56</v>
       </c>
@@ -3124,104 +3124,104 @@
       <c r="V26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>58</v>
+      <c r="W26" s="11">
+        <v>552947000</v>
+      </c>
+      <c r="X26" s="11">
+        <v>535207000</v>
       </c>
       <c r="Y26" s="11">
-        <v>552947000</v>
+        <v>562026500</v>
       </c>
       <c r="Z26" s="11">
-        <v>535207000</v>
+        <v>548722900</v>
       </c>
       <c r="AA26" s="11">
-        <v>562026500</v>
+        <v>535195200</v>
       </c>
       <c r="AB26" s="11">
-        <v>548722900</v>
+        <v>540299430</v>
       </c>
       <c r="AC26" s="11">
-        <v>535195200</v>
+        <v>540990300</v>
       </c>
       <c r="AD26" s="11">
-        <v>540299430</v>
+        <v>540220900</v>
       </c>
       <c r="AE26" s="11">
-        <v>540990300</v>
+        <v>306334650</v>
       </c>
       <c r="AF26" s="11">
-        <v>540220900</v>
+        <v>422598000</v>
       </c>
       <c r="AG26" s="11">
-        <v>306334650</v>
+        <v>561370700</v>
       </c>
       <c r="AH26" s="11">
-        <v>422598000</v>
+        <v>570347000</v>
       </c>
       <c r="AI26" s="11">
-        <v>561370700</v>
+        <v>575023900</v>
       </c>
       <c r="AJ26" s="11">
-        <v>570347000</v>
+        <v>571840350</v>
       </c>
       <c r="AK26" s="11">
-        <v>575023900</v>
+        <v>577864000</v>
       </c>
       <c r="AL26" s="11">
-        <v>571840350</v>
+        <v>550731300</v>
       </c>
       <c r="AM26" s="11">
-        <v>577864000</v>
+        <v>540017500</v>
       </c>
       <c r="AN26" s="11">
-        <v>550731300</v>
+        <v>541895000</v>
       </c>
       <c r="AO26" s="11">
-        <v>540017500</v>
+        <v>540287500</v>
       </c>
       <c r="AP26" s="11">
-        <v>541895000</v>
+        <v>520673900</v>
       </c>
       <c r="AQ26" s="11">
-        <v>540287500</v>
+        <v>304236800</v>
       </c>
       <c r="AR26" s="11">
-        <v>520673900</v>
+        <v>540324000</v>
       </c>
       <c r="AS26" s="11">
-        <v>304236800</v>
+        <v>540164000</v>
       </c>
       <c r="AT26" s="11">
-        <v>540324000</v>
+        <v>550278000</v>
       </c>
       <c r="AU26" s="11">
-        <v>540164000</v>
+        <v>546768900</v>
       </c>
       <c r="AV26" s="11">
-        <v>550278000</v>
+        <v>541491000</v>
       </c>
       <c r="AW26" s="11">
-        <v>546768900</v>
+        <v>540126000</v>
       </c>
       <c r="AX26" s="11">
-        <v>541491000</v>
+        <v>530290000</v>
       </c>
       <c r="AY26" s="11">
-        <v>540126000</v>
+        <v>530572500</v>
       </c>
       <c r="AZ26" s="11">
-        <v>530290000</v>
+        <v>530221000</v>
       </c>
       <c r="BA26" s="11">
-        <v>530572500</v>
+        <v>546206000</v>
       </c>
       <c r="BB26" s="11">
-        <v>530221000</v>
+        <v>552424200</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>67</v>
       </c>
@@ -3282,103 +3282,103 @@
         <v>0</v>
       </c>
       <c r="W27" s="13">
-        <v>0</v>
+        <v>552947000</v>
       </c>
       <c r="X27" s="13">
-        <v>0</v>
+        <v>535207000</v>
       </c>
       <c r="Y27" s="13">
-        <v>552947000</v>
+        <v>562026500</v>
       </c>
       <c r="Z27" s="13">
-        <v>535207000</v>
+        <v>548722900</v>
       </c>
       <c r="AA27" s="13">
-        <v>562026500</v>
+        <v>535195200</v>
       </c>
       <c r="AB27" s="13">
-        <v>548722900</v>
+        <v>540299430</v>
       </c>
       <c r="AC27" s="13">
-        <v>535195200</v>
+        <v>540990300</v>
       </c>
       <c r="AD27" s="13">
-        <v>540299430</v>
+        <v>540220900</v>
       </c>
       <c r="AE27" s="13">
-        <v>540990300</v>
+        <v>306334650</v>
       </c>
       <c r="AF27" s="13">
-        <v>540220900</v>
+        <v>422598000</v>
       </c>
       <c r="AG27" s="13">
-        <v>306334650</v>
+        <v>561370700</v>
       </c>
       <c r="AH27" s="13">
-        <v>422598000</v>
+        <v>570347000</v>
       </c>
       <c r="AI27" s="13">
-        <v>561370700</v>
+        <v>575023900</v>
       </c>
       <c r="AJ27" s="13">
-        <v>570347000</v>
+        <v>571840350</v>
       </c>
       <c r="AK27" s="13">
-        <v>575023900</v>
+        <v>577864000</v>
       </c>
       <c r="AL27" s="13">
-        <v>571840350</v>
+        <v>550731300</v>
       </c>
       <c r="AM27" s="13">
-        <v>577864000</v>
+        <v>540017500</v>
       </c>
       <c r="AN27" s="13">
-        <v>550731300</v>
+        <v>541895000</v>
       </c>
       <c r="AO27" s="13">
-        <v>540017500</v>
+        <v>540287500</v>
       </c>
       <c r="AP27" s="13">
-        <v>541895000</v>
+        <v>520673900</v>
       </c>
       <c r="AQ27" s="13">
-        <v>540287500</v>
+        <v>304236800</v>
       </c>
       <c r="AR27" s="13">
-        <v>520673900</v>
+        <v>540324000</v>
       </c>
       <c r="AS27" s="13">
-        <v>304236800</v>
+        <v>540164000</v>
       </c>
       <c r="AT27" s="13">
-        <v>540324000</v>
+        <v>550278000</v>
       </c>
       <c r="AU27" s="13">
-        <v>540164000</v>
+        <v>546768900</v>
       </c>
       <c r="AV27" s="13">
-        <v>550278000</v>
+        <v>541491000</v>
       </c>
       <c r="AW27" s="13">
-        <v>546768900</v>
+        <v>540126000</v>
       </c>
       <c r="AX27" s="13">
-        <v>541491000</v>
+        <v>530290000</v>
       </c>
       <c r="AY27" s="13">
-        <v>540126000</v>
+        <v>530572500</v>
       </c>
       <c r="AZ27" s="13">
-        <v>530290000</v>
+        <v>530221000</v>
       </c>
       <c r="BA27" s="13">
-        <v>530572500</v>
+        <v>546206000</v>
       </c>
       <c r="BB27" s="13">
-        <v>530221000</v>
+        <v>552424200</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>68</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>56</v>
       </c>
@@ -3497,11 +3497,11 @@
       <c r="V29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>58</v>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+      <c r="X29" s="11">
+        <v>0</v>
       </c>
       <c r="Y29" s="11">
         <v>0</v>
@@ -3527,11 +3527,11 @@
       <c r="AF29" s="11">
         <v>0</v>
       </c>
-      <c r="AG29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="11">
-        <v>0</v>
+      <c r="AG29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>58</v>
@@ -3560,11 +3560,11 @@
       <c r="AQ29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS29" s="11" t="s">
-        <v>58</v>
+      <c r="AR29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="11">
+        <v>0</v>
       </c>
       <c r="AT29" s="11">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>69</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>62</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
@@ -3873,11 +3873,11 @@
       <c r="W32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y32" s="11" t="s">
-        <v>58</v>
+      <c r="X32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>0</v>
       </c>
       <c r="Z32" s="11">
         <v>0</v>
@@ -3900,11 +3900,11 @@
       <c r="AF32" s="11">
         <v>0</v>
       </c>
-      <c r="AG32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="11">
-        <v>0</v>
+      <c r="AG32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI32" s="11" t="s">
         <v>58</v>
@@ -3933,14 +3933,14 @@
       <c r="AQ32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="11" t="s">
-        <v>58</v>
+      <c r="AR32" s="11">
+        <v>0</v>
       </c>
       <c r="AS32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT32" s="11">
-        <v>0</v>
+      <c r="AT32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU32" s="11" t="s">
         <v>58</v>
@@ -3967,7 +3967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>63</v>
       </c>
@@ -4027,11 +4027,11 @@
       <c r="V33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="13" t="s">
-        <v>58</v>
+      <c r="W33" s="13">
+        <v>0</v>
+      </c>
+      <c r="X33" s="13">
+        <v>0</v>
       </c>
       <c r="Y33" s="13">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>70</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>56</v>
       </c>
@@ -4243,20 +4243,20 @@
       <c r="V35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>58</v>
+      <c r="W35" s="11">
+        <v>0</v>
+      </c>
+      <c r="X35" s="11">
+        <v>0</v>
       </c>
       <c r="Y35" s="11">
-        <v>0</v>
+        <v>-850000</v>
       </c>
       <c r="Z35" s="11">
         <v>0</v>
       </c>
       <c r="AA35" s="11">
-        <v>-850000</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="11">
         <v>0</v>
@@ -4268,79 +4268,79 @@
         <v>0</v>
       </c>
       <c r="AE35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="11">
         <v>-1594000</v>
       </c>
+      <c r="AF35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG35" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ35" s="11" t="s">
-        <v>58</v>
+      <c r="AI35" s="11">
+        <v>-2506000</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>-1700000</v>
       </c>
       <c r="AK35" s="11">
-        <v>-2506000</v>
-      </c>
-      <c r="AL35" s="11">
-        <v>-1700000</v>
-      </c>
-      <c r="AM35" s="11">
         <v>-5100000</v>
       </c>
+      <c r="AL35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM35" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN35" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ35" s="11" t="s">
-        <v>58</v>
+      <c r="AP35" s="11">
+        <v>-100000</v>
+      </c>
+      <c r="AQ35" s="11">
+        <v>-405000</v>
       </c>
       <c r="AR35" s="11">
-        <v>-100000</v>
-      </c>
-      <c r="AS35" s="11">
-        <v>-405000</v>
-      </c>
-      <c r="AT35" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX35" s="11">
+      <c r="AV35" s="11">
         <v>-1120000</v>
       </c>
+      <c r="AW35" s="11">
+        <v>-80000</v>
+      </c>
+      <c r="AX35" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AY35" s="11">
-        <v>-80000</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BA35" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="11" t="s">
-        <v>58</v>
+        <v>-1000000</v>
+      </c>
+      <c r="BB35" s="11">
+        <v>-6789000</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>71</v>
       </c>
@@ -4400,20 +4400,20 @@
       <c r="V36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>58</v>
+      <c r="W36" s="13">
+        <v>0</v>
+      </c>
+      <c r="X36" s="13">
+        <v>0</v>
       </c>
       <c r="Y36" s="13">
-        <v>0</v>
+        <v>-850000</v>
       </c>
       <c r="Z36" s="13">
         <v>0</v>
       </c>
       <c r="AA36" s="13">
-        <v>-850000</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="13">
         <v>0</v>
@@ -4425,31 +4425,31 @@
         <v>0</v>
       </c>
       <c r="AE36" s="13">
-        <v>0</v>
+        <v>-1594000</v>
       </c>
       <c r="AF36" s="13">
         <v>0</v>
       </c>
       <c r="AG36" s="13">
-        <v>-1594000</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="13">
         <v>0</v>
       </c>
       <c r="AI36" s="13">
-        <v>0</v>
+        <v>-2506000</v>
       </c>
       <c r="AJ36" s="13">
-        <v>0</v>
+        <v>-1700000</v>
       </c>
       <c r="AK36" s="13">
-        <v>-2506000</v>
+        <v>-5100000</v>
       </c>
       <c r="AL36" s="13">
-        <v>-1700000</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="13">
-        <v>-5100000</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="13">
         <v>0</v>
@@ -4458,16 +4458,16 @@
         <v>0</v>
       </c>
       <c r="AP36" s="13">
-        <v>0</v>
+        <v>-100000</v>
       </c>
       <c r="AQ36" s="13">
-        <v>0</v>
+        <v>-405000</v>
       </c>
       <c r="AR36" s="13">
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="13">
-        <v>-405000</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="13">
         <v>0</v>
@@ -4476,28 +4476,28 @@
         <v>0</v>
       </c>
       <c r="AV36" s="13">
-        <v>0</v>
+        <v>-1120000</v>
       </c>
       <c r="AW36" s="13">
-        <v>0</v>
+        <v>-80000</v>
       </c>
       <c r="AX36" s="13">
-        <v>-1120000</v>
+        <v>0</v>
       </c>
       <c r="AY36" s="13">
-        <v>-80000</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="13">
         <v>0</v>
       </c>
       <c r="BA36" s="13">
-        <v>0</v>
+        <v>-1000000</v>
       </c>
       <c r="BB36" s="13">
-        <v>0</v>
+        <v>-6789000</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>64</v>
       </c>
@@ -4558,103 +4558,103 @@
         <v>0</v>
       </c>
       <c r="W37" s="15">
-        <v>0</v>
+        <v>552947000</v>
       </c>
       <c r="X37" s="15">
-        <v>0</v>
+        <v>535207000</v>
       </c>
       <c r="Y37" s="15">
-        <v>552947000</v>
+        <v>561176500</v>
       </c>
       <c r="Z37" s="15">
-        <v>535207000</v>
+        <v>548722900</v>
       </c>
       <c r="AA37" s="15">
-        <v>561176500</v>
+        <v>535195200</v>
       </c>
       <c r="AB37" s="15">
-        <v>548722900</v>
+        <v>540299430</v>
       </c>
       <c r="AC37" s="15">
-        <v>535195200</v>
+        <v>540990300</v>
       </c>
       <c r="AD37" s="15">
-        <v>540299430</v>
+        <v>540220900</v>
       </c>
       <c r="AE37" s="15">
-        <v>540990300</v>
+        <v>304740650</v>
       </c>
       <c r="AF37" s="15">
-        <v>540220900</v>
+        <v>422598000</v>
       </c>
       <c r="AG37" s="15">
-        <v>304740650</v>
+        <v>561370700</v>
       </c>
       <c r="AH37" s="15">
-        <v>422598000</v>
+        <v>570347000</v>
       </c>
       <c r="AI37" s="15">
-        <v>561370700</v>
+        <v>572517900</v>
       </c>
       <c r="AJ37" s="15">
-        <v>570347000</v>
+        <v>570140350</v>
       </c>
       <c r="AK37" s="15">
-        <v>572517900</v>
+        <v>572764000</v>
       </c>
       <c r="AL37" s="15">
-        <v>570140350</v>
+        <v>550731300</v>
       </c>
       <c r="AM37" s="15">
-        <v>572764000</v>
+        <v>540017500</v>
       </c>
       <c r="AN37" s="15">
-        <v>550731300</v>
+        <v>541895000</v>
       </c>
       <c r="AO37" s="15">
-        <v>540017500</v>
+        <v>540287500</v>
       </c>
       <c r="AP37" s="15">
-        <v>541895000</v>
+        <v>520573900</v>
       </c>
       <c r="AQ37" s="15">
-        <v>540287500</v>
+        <v>303831800</v>
       </c>
       <c r="AR37" s="15">
-        <v>520573900</v>
+        <v>540324000</v>
       </c>
       <c r="AS37" s="15">
-        <v>303831800</v>
+        <v>540164000</v>
       </c>
       <c r="AT37" s="15">
-        <v>540324000</v>
+        <v>550278000</v>
       </c>
       <c r="AU37" s="15">
-        <v>540164000</v>
+        <v>546768900</v>
       </c>
       <c r="AV37" s="15">
-        <v>550278000</v>
+        <v>540371000</v>
       </c>
       <c r="AW37" s="15">
-        <v>546768900</v>
+        <v>540046000</v>
       </c>
       <c r="AX37" s="15">
-        <v>540371000</v>
+        <v>530290000</v>
       </c>
       <c r="AY37" s="15">
-        <v>540046000</v>
+        <v>530572500</v>
       </c>
       <c r="AZ37" s="15">
-        <v>530290000</v>
+        <v>530221000</v>
       </c>
       <c r="BA37" s="15">
-        <v>530572500</v>
+        <v>545206000</v>
       </c>
       <c r="BB37" s="15">
-        <v>530221000</v>
+        <v>545635200</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4709,7 +4709,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4764,7 +4764,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4819,7 +4819,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>72</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5031,7 +5031,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>73</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>56</v>
       </c>
@@ -5150,104 +5150,104 @@
       <c r="V44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>58</v>
+      <c r="W44" s="11">
+        <v>100422</v>
+      </c>
+      <c r="X44" s="11">
+        <v>97383</v>
       </c>
       <c r="Y44" s="11">
-        <v>100422</v>
+        <v>210381</v>
       </c>
       <c r="Z44" s="11">
-        <v>97383</v>
+        <v>206242</v>
       </c>
       <c r="AA44" s="11">
-        <v>210381</v>
+        <v>200686</v>
       </c>
       <c r="AB44" s="11">
-        <v>206242</v>
+        <v>201418</v>
       </c>
       <c r="AC44" s="11">
-        <v>200686</v>
+        <v>205160</v>
       </c>
       <c r="AD44" s="11">
-        <v>201418</v>
+        <v>200157</v>
       </c>
       <c r="AE44" s="11">
-        <v>205160</v>
+        <v>115725</v>
       </c>
       <c r="AF44" s="11">
-        <v>200157</v>
+        <v>193687</v>
       </c>
       <c r="AG44" s="11">
-        <v>115725</v>
+        <v>273839</v>
       </c>
       <c r="AH44" s="11">
-        <v>193687</v>
+        <v>280558</v>
       </c>
       <c r="AI44" s="11">
-        <v>273839</v>
+        <v>281188</v>
       </c>
       <c r="AJ44" s="11">
-        <v>280558</v>
+        <v>277959</v>
       </c>
       <c r="AK44" s="11">
-        <v>281188</v>
+        <v>284777</v>
       </c>
       <c r="AL44" s="11">
-        <v>277959</v>
+        <v>345441</v>
       </c>
       <c r="AM44" s="11">
-        <v>284777</v>
+        <v>338748</v>
       </c>
       <c r="AN44" s="11">
-        <v>345441</v>
+        <v>336170</v>
       </c>
       <c r="AO44" s="11">
-        <v>338748</v>
+        <v>335855</v>
       </c>
       <c r="AP44" s="11">
-        <v>336170</v>
+        <v>321010</v>
       </c>
       <c r="AQ44" s="11">
-        <v>335855</v>
+        <v>191820</v>
       </c>
       <c r="AR44" s="11">
-        <v>321010</v>
+        <v>475026</v>
       </c>
       <c r="AS44" s="11">
-        <v>191820</v>
+        <v>481181</v>
       </c>
       <c r="AT44" s="11">
-        <v>475026</v>
+        <v>486313</v>
       </c>
       <c r="AU44" s="11">
-        <v>481181</v>
+        <v>483642</v>
       </c>
       <c r="AV44" s="11">
-        <v>486313</v>
+        <v>480308</v>
       </c>
       <c r="AW44" s="11">
-        <v>483642</v>
+        <v>477509</v>
       </c>
       <c r="AX44" s="11">
-        <v>480308</v>
+        <v>468121</v>
       </c>
       <c r="AY44" s="11">
-        <v>477509</v>
+        <v>469206</v>
       </c>
       <c r="AZ44" s="11">
-        <v>468121</v>
+        <v>467583</v>
       </c>
       <c r="BA44" s="11">
-        <v>469206</v>
+        <v>481077</v>
       </c>
       <c r="BB44" s="11">
-        <v>467583</v>
+        <v>490887</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>67</v>
       </c>
@@ -5308,103 +5308,103 @@
         <v>0</v>
       </c>
       <c r="W45" s="13">
-        <v>0</v>
+        <v>100422</v>
       </c>
       <c r="X45" s="13">
-        <v>0</v>
+        <v>97383</v>
       </c>
       <c r="Y45" s="13">
-        <v>100422</v>
+        <v>210381</v>
       </c>
       <c r="Z45" s="13">
-        <v>97383</v>
+        <v>206242</v>
       </c>
       <c r="AA45" s="13">
-        <v>210381</v>
+        <v>200686</v>
       </c>
       <c r="AB45" s="13">
-        <v>206242</v>
+        <v>201418</v>
       </c>
       <c r="AC45" s="13">
-        <v>200686</v>
+        <v>205160</v>
       </c>
       <c r="AD45" s="13">
-        <v>201418</v>
+        <v>200157</v>
       </c>
       <c r="AE45" s="13">
-        <v>205160</v>
+        <v>115725</v>
       </c>
       <c r="AF45" s="13">
-        <v>200157</v>
+        <v>193687</v>
       </c>
       <c r="AG45" s="13">
-        <v>115725</v>
+        <v>273839</v>
       </c>
       <c r="AH45" s="13">
-        <v>193687</v>
+        <v>280558</v>
       </c>
       <c r="AI45" s="13">
-        <v>273839</v>
+        <v>281188</v>
       </c>
       <c r="AJ45" s="13">
-        <v>280558</v>
+        <v>277959</v>
       </c>
       <c r="AK45" s="13">
-        <v>281188</v>
+        <v>284777</v>
       </c>
       <c r="AL45" s="13">
-        <v>277959</v>
+        <v>345441</v>
       </c>
       <c r="AM45" s="13">
-        <v>284777</v>
+        <v>338748</v>
       </c>
       <c r="AN45" s="13">
-        <v>345441</v>
+        <v>336170</v>
       </c>
       <c r="AO45" s="13">
-        <v>338748</v>
+        <v>335855</v>
       </c>
       <c r="AP45" s="13">
-        <v>336170</v>
+        <v>321010</v>
       </c>
       <c r="AQ45" s="13">
-        <v>335855</v>
+        <v>191820</v>
       </c>
       <c r="AR45" s="13">
-        <v>321010</v>
+        <v>475026</v>
       </c>
       <c r="AS45" s="13">
-        <v>191820</v>
+        <v>481181</v>
       </c>
       <c r="AT45" s="13">
-        <v>475026</v>
+        <v>486313</v>
       </c>
       <c r="AU45" s="13">
-        <v>481181</v>
+        <v>483642</v>
       </c>
       <c r="AV45" s="13">
-        <v>486313</v>
+        <v>480308</v>
       </c>
       <c r="AW45" s="13">
-        <v>483642</v>
+        <v>477509</v>
       </c>
       <c r="AX45" s="13">
-        <v>480308</v>
+        <v>468121</v>
       </c>
       <c r="AY45" s="13">
-        <v>477509</v>
+        <v>469206</v>
       </c>
       <c r="AZ45" s="13">
-        <v>468121</v>
+        <v>467583</v>
       </c>
       <c r="BA45" s="13">
-        <v>469206</v>
+        <v>481077</v>
       </c>
       <c r="BB45" s="13">
-        <v>467583</v>
+        <v>490887</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>75</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>56</v>
       </c>
@@ -5523,11 +5523,11 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>0</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
       </c>
       <c r="Y47" s="11">
         <v>0</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>69</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>76</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -5899,11 +5899,11 @@
       <c r="W50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y50" s="11" t="s">
-        <v>58</v>
+      <c r="X50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>0</v>
       </c>
       <c r="Z50" s="11">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>63</v>
       </c>
@@ -6055,11 +6055,11 @@
       <c r="V51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>58</v>
+      <c r="W51" s="13">
+        <v>0</v>
+      </c>
+      <c r="X51" s="13">
+        <v>0</v>
       </c>
       <c r="Y51" s="13">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>77</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6271,20 +6271,20 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
       </c>
       <c r="Y53" s="11">
-        <v>0</v>
+        <v>-132</v>
       </c>
       <c r="Z53" s="11">
         <v>0</v>
       </c>
       <c r="AA53" s="11">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="11">
         <v>0</v>
@@ -6296,31 +6296,31 @@
         <v>0</v>
       </c>
       <c r="AE53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="11">
         <v>-259</v>
       </c>
+      <c r="AF53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG53" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ53" s="11" t="s">
-        <v>58</v>
+      <c r="AI53" s="11">
+        <v>-1228</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>-841</v>
       </c>
       <c r="AK53" s="11">
-        <v>-1228</v>
+        <v>-2027</v>
       </c>
       <c r="AL53" s="11">
-        <v>-841</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="11">
-        <v>-2027</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="11">
         <v>0</v>
@@ -6329,16 +6329,16 @@
         <v>0</v>
       </c>
       <c r="AP53" s="11">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AQ53" s="11">
-        <v>0</v>
+        <v>-236</v>
       </c>
       <c r="AR53" s="11">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="11">
-        <v>-236</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="11">
         <v>0</v>
@@ -6347,28 +6347,28 @@
         <v>0</v>
       </c>
       <c r="AV53" s="11">
-        <v>0</v>
+        <v>-946</v>
       </c>
       <c r="AW53" s="11">
-        <v>0</v>
+        <v>-71</v>
       </c>
       <c r="AX53" s="11">
-        <v>-946</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="11">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="11">
         <v>0</v>
       </c>
       <c r="BA53" s="11">
-        <v>0</v>
+        <v>-870</v>
       </c>
       <c r="BB53" s="11">
-        <v>0</v>
+        <v>-5779</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>71</v>
       </c>
@@ -6430,20 +6430,20 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>0</v>
+      </c>
+      <c r="X54" s="13">
+        <v>0</v>
       </c>
       <c r="Y54" s="13">
-        <v>0</v>
+        <v>-132</v>
       </c>
       <c r="Z54" s="13">
         <v>0</v>
       </c>
       <c r="AA54" s="13">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="13">
         <v>0</v>
@@ -6455,31 +6455,31 @@
         <v>0</v>
       </c>
       <c r="AE54" s="13">
-        <v>0</v>
+        <v>-259</v>
       </c>
       <c r="AF54" s="13">
         <v>0</v>
       </c>
       <c r="AG54" s="13">
-        <v>-259</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="13">
         <v>0</v>
       </c>
       <c r="AI54" s="13">
-        <v>0</v>
+        <v>-1228</v>
       </c>
       <c r="AJ54" s="13">
-        <v>0</v>
+        <v>-841</v>
       </c>
       <c r="AK54" s="13">
-        <v>-1228</v>
+        <v>-2027</v>
       </c>
       <c r="AL54" s="13">
-        <v>-841</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="13">
-        <v>-2027</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="13">
         <v>0</v>
@@ -6488,16 +6488,16 @@
         <v>0</v>
       </c>
       <c r="AP54" s="13">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AQ54" s="13">
-        <v>0</v>
+        <v>-236</v>
       </c>
       <c r="AR54" s="13">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="13">
-        <v>-236</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="13">
         <v>0</v>
@@ -6506,28 +6506,28 @@
         <v>0</v>
       </c>
       <c r="AV54" s="13">
-        <v>0</v>
+        <v>-946</v>
       </c>
       <c r="AW54" s="13">
-        <v>0</v>
+        <v>-71</v>
       </c>
       <c r="AX54" s="13">
-        <v>-946</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="13">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="13">
         <v>0</v>
       </c>
       <c r="BA54" s="13">
-        <v>0</v>
+        <v>-870</v>
       </c>
       <c r="BB54" s="13">
-        <v>0</v>
+        <v>-5779</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>78</v>
       </c>
@@ -6584,7 +6584,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>79</v>
       </c>
@@ -6646,11 +6646,11 @@
       <c r="V56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>58</v>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+      <c r="X56" s="11">
+        <v>0</v>
       </c>
       <c r="Y56" s="11">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>64</v>
       </c>
@@ -6804,103 +6804,103 @@
         <v>0</v>
       </c>
       <c r="W57" s="13">
-        <v>0</v>
+        <v>100422</v>
       </c>
       <c r="X57" s="13">
-        <v>0</v>
+        <v>97383</v>
       </c>
       <c r="Y57" s="13">
-        <v>100422</v>
+        <v>210249</v>
       </c>
       <c r="Z57" s="13">
-        <v>97383</v>
+        <v>206242</v>
       </c>
       <c r="AA57" s="13">
-        <v>210249</v>
+        <v>200686</v>
       </c>
       <c r="AB57" s="13">
-        <v>206242</v>
+        <v>201418</v>
       </c>
       <c r="AC57" s="13">
-        <v>200686</v>
+        <v>205160</v>
       </c>
       <c r="AD57" s="13">
-        <v>201418</v>
+        <v>200157</v>
       </c>
       <c r="AE57" s="13">
-        <v>205160</v>
+        <v>115466</v>
       </c>
       <c r="AF57" s="13">
-        <v>200157</v>
+        <v>193687</v>
       </c>
       <c r="AG57" s="13">
-        <v>115466</v>
+        <v>273839</v>
       </c>
       <c r="AH57" s="13">
-        <v>193687</v>
+        <v>280558</v>
       </c>
       <c r="AI57" s="13">
-        <v>273839</v>
+        <v>279960</v>
       </c>
       <c r="AJ57" s="13">
-        <v>280558</v>
+        <v>277118</v>
       </c>
       <c r="AK57" s="13">
-        <v>279960</v>
+        <v>282750</v>
       </c>
       <c r="AL57" s="13">
-        <v>277118</v>
+        <v>345441</v>
       </c>
       <c r="AM57" s="13">
-        <v>282750</v>
+        <v>338748</v>
       </c>
       <c r="AN57" s="13">
-        <v>345441</v>
+        <v>336170</v>
       </c>
       <c r="AO57" s="13">
-        <v>338748</v>
+        <v>335855</v>
       </c>
       <c r="AP57" s="13">
-        <v>336170</v>
+        <v>320991</v>
       </c>
       <c r="AQ57" s="13">
-        <v>335855</v>
+        <v>191584</v>
       </c>
       <c r="AR57" s="13">
-        <v>320991</v>
+        <v>475026</v>
       </c>
       <c r="AS57" s="13">
-        <v>191584</v>
+        <v>481181</v>
       </c>
       <c r="AT57" s="13">
-        <v>475026</v>
+        <v>486313</v>
       </c>
       <c r="AU57" s="13">
-        <v>481181</v>
+        <v>483642</v>
       </c>
       <c r="AV57" s="13">
-        <v>486313</v>
+        <v>479362</v>
       </c>
       <c r="AW57" s="13">
-        <v>483642</v>
+        <v>477438</v>
       </c>
       <c r="AX57" s="13">
-        <v>479362</v>
+        <v>468121</v>
       </c>
       <c r="AY57" s="13">
-        <v>477438</v>
+        <v>469206</v>
       </c>
       <c r="AZ57" s="13">
-        <v>468121</v>
+        <v>467583</v>
       </c>
       <c r="BA57" s="13">
-        <v>469206</v>
+        <v>480207</v>
       </c>
       <c r="BB57" s="13">
-        <v>467583</v>
+        <v>485108</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6955,7 +6955,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7010,7 +7010,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -7065,7 +7065,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>80</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7277,7 +7277,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>81</v>
       </c>
@@ -7334,7 +7334,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>56</v>
       </c>
@@ -7396,104 +7396,104 @@
       <c r="V64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="11" t="s">
-        <v>58</v>
+      <c r="W64" s="11">
+        <v>182</v>
+      </c>
+      <c r="X64" s="11">
+        <v>182</v>
       </c>
       <c r="Y64" s="11">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="Z64" s="11">
-        <v>182</v>
+        <v>376</v>
       </c>
       <c r="AA64" s="11">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AB64" s="11">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AC64" s="11">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AD64" s="11">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AE64" s="11">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF64" s="11">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="AG64" s="11">
-        <v>378</v>
+        <v>488</v>
       </c>
       <c r="AH64" s="11">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="AI64" s="11">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AJ64" s="11">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AK64" s="11">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AL64" s="11">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="AM64" s="11">
-        <v>493</v>
+        <v>627</v>
       </c>
       <c r="AN64" s="11">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AO64" s="11">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AP64" s="11">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AQ64" s="11">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="AR64" s="11">
-        <v>617</v>
+        <v>879</v>
       </c>
       <c r="AS64" s="11">
-        <v>631</v>
+        <v>891</v>
       </c>
       <c r="AT64" s="11">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="AU64" s="11">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="AV64" s="11">
+        <v>887</v>
+      </c>
+      <c r="AW64" s="11">
         <v>884</v>
       </c>
-      <c r="AW64" s="11">
-        <v>885</v>
-      </c>
       <c r="AX64" s="11">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="AY64" s="11">
         <v>884</v>
       </c>
       <c r="AZ64" s="11">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="BA64" s="11">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="BB64" s="11">
-        <v>882</v>
+        <v>889</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>83</v>
       </c>
@@ -7550,7 +7550,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -7615,11 +7615,11 @@
       <c r="W66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y66" s="11" t="s">
-        <v>58</v>
+      <c r="X66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="11">
+        <v>0</v>
       </c>
       <c r="Z66" s="11">
         <v>0</v>

--- a/database/industries/darou/dekapsul/product/monthly_seprated.xlsx
+++ b/database/industries/darou/dekapsul/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="74">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3189,152 +3189,152 @@
       <c r="E11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>57</v>
+      <c r="F11" s="13" t="n">
+        <v>280109000</v>
       </c>
       <c r="G11" s="13" t="n">
-        <v>280109000</v>
+        <v>566148457</v>
       </c>
       <c r="H11" s="13" t="n">
-        <v>566148457</v>
+        <v>573310824</v>
       </c>
       <c r="I11" s="13" t="n">
-        <v>573310824</v>
+        <v>551779943</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>551779943</v>
+        <v>550108440</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>550108440</v>
+        <v>553605328</v>
       </c>
       <c r="L11" s="13" t="n">
-        <v>553605328</v>
+        <v>526894339</v>
       </c>
       <c r="M11" s="13" t="n">
-        <v>526894339</v>
+        <v>540311201</v>
       </c>
       <c r="N11" s="13" t="n">
-        <v>540311201</v>
+        <v>540234716</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>540234716</v>
+        <v>534677155</v>
       </c>
       <c r="P11" s="13" t="n">
-        <v>534677155</v>
+        <v>573677612</v>
       </c>
       <c r="Q11" s="13" t="n">
-        <v>573677612</v>
+        <v>462751030</v>
       </c>
       <c r="R11" s="13" t="n">
-        <v>462751030</v>
+        <v>558322009</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>558322009</v>
+        <v>548317075</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>548317075</v>
+        <v>549524713</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>549524713</v>
+        <v>543416420</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>543416420</v>
+        <v>549924160</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>549924160</v>
+        <v>555480529</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>555480529</v>
+        <v>536130875</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>536130875</v>
+        <v>516305485</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>516305485</v>
+        <v>545865235</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>545865235</v>
+        <v>520958681</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>520958681</v>
+        <v>542383943</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>542383943</v>
+        <v>375426360</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>375426360</v>
+        <v>446065394</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>446065394</v>
+        <v>552395612</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>552395612</v>
+        <v>551685968</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>551685968</v>
+        <v>551169258</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>551169258</v>
+        <v>548405134</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>548405134</v>
+        <v>580061446</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>580061446</v>
+        <v>522939370</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>522939370</v>
+        <v>536379292</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>536379292</v>
+        <v>543087251</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>543087251</v>
+        <v>533728325</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>533728325</v>
+        <v>534681699</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>534681699</v>
+        <v>393015071</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>393015071</v>
+        <v>550620859</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>550620859</v>
+        <v>550710422</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>550710422</v>
+        <v>546644459</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>546644459</v>
+        <v>550240536</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>550240536</v>
+        <v>541983692</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>541983692</v>
+        <v>541550519</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>541550519</v>
+        <v>532382003</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>532382003</v>
+        <v>530142393</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>530142393</v>
+        <v>530319550</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>530319550</v>
+        <v>531609934</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>531609934</v>
+        <v>530239017</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>530239017</v>
+        <v>321921046</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>321921046</v>
+        <v>470489659</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,8 +3453,8 @@
       <c r="U13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="13" t="s">
-        <v>57</v>
+      <c r="V13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W13" s="13" t="n">
         <v>0</v>
@@ -3480,8 +3480,8 @@
       <c r="AD13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE13" s="13" t="n">
-        <v>0</v>
+      <c r="AE13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF13" s="13" t="s">
         <v>57</v>
@@ -3513,11 +3513,11 @@
       <c r="AO13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>0</v>
+      <c r="AP13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR13" s="13" t="s">
         <v>57</v>
@@ -3607,8 +3607,8 @@
       <c r="T14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>57</v>
+      <c r="U14" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="15" t="n">
         <v>0</v>
@@ -3720,151 +3720,151 @@
         <v>0</v>
       </c>
       <c r="F15" s="17" t="n">
-        <v>0</v>
+        <v>280109000</v>
       </c>
       <c r="G15" s="17" t="n">
-        <v>280109000</v>
+        <v>566148457</v>
       </c>
       <c r="H15" s="17" t="n">
-        <v>566148457</v>
+        <v>573310824</v>
       </c>
       <c r="I15" s="17" t="n">
-        <v>573310824</v>
+        <v>551779943</v>
       </c>
       <c r="J15" s="17" t="n">
-        <v>551779943</v>
+        <v>550108440</v>
       </c>
       <c r="K15" s="17" t="n">
-        <v>550108440</v>
+        <v>553605328</v>
       </c>
       <c r="L15" s="17" t="n">
-        <v>553605328</v>
+        <v>526894339</v>
       </c>
       <c r="M15" s="17" t="n">
-        <v>526894339</v>
+        <v>540311201</v>
       </c>
       <c r="N15" s="17" t="n">
-        <v>540311201</v>
+        <v>540234716</v>
       </c>
       <c r="O15" s="17" t="n">
-        <v>540234716</v>
+        <v>534677155</v>
       </c>
       <c r="P15" s="17" t="n">
-        <v>534677155</v>
+        <v>573677612</v>
       </c>
       <c r="Q15" s="17" t="n">
-        <v>573677612</v>
+        <v>462751030</v>
       </c>
       <c r="R15" s="17" t="n">
-        <v>462751030</v>
+        <v>558322009</v>
       </c>
       <c r="S15" s="17" t="n">
-        <v>558322009</v>
+        <v>548317075</v>
       </c>
       <c r="T15" s="17" t="n">
-        <v>548317075</v>
+        <v>549524713</v>
       </c>
       <c r="U15" s="17" t="n">
-        <v>549524713</v>
+        <v>543416420</v>
       </c>
       <c r="V15" s="17" t="n">
-        <v>543416420</v>
+        <v>549924160</v>
       </c>
       <c r="W15" s="17" t="n">
-        <v>549924160</v>
+        <v>555480529</v>
       </c>
       <c r="X15" s="17" t="n">
-        <v>555480529</v>
+        <v>536130875</v>
       </c>
       <c r="Y15" s="17" t="n">
-        <v>536130875</v>
+        <v>516305485</v>
       </c>
       <c r="Z15" s="17" t="n">
-        <v>516305485</v>
+        <v>545865235</v>
       </c>
       <c r="AA15" s="17" t="n">
-        <v>545865235</v>
+        <v>520958681</v>
       </c>
       <c r="AB15" s="17" t="n">
-        <v>520958681</v>
+        <v>542383943</v>
       </c>
       <c r="AC15" s="17" t="n">
-        <v>542383943</v>
+        <v>375426360</v>
       </c>
       <c r="AD15" s="17" t="n">
-        <v>375426360</v>
+        <v>446065394</v>
       </c>
       <c r="AE15" s="17" t="n">
-        <v>446065394</v>
+        <v>552395612</v>
       </c>
       <c r="AF15" s="17" t="n">
-        <v>552395612</v>
+        <v>551685968</v>
       </c>
       <c r="AG15" s="17" t="n">
-        <v>551685968</v>
+        <v>551169258</v>
       </c>
       <c r="AH15" s="17" t="n">
-        <v>551169258</v>
+        <v>548405134</v>
       </c>
       <c r="AI15" s="17" t="n">
-        <v>548405134</v>
+        <v>580061446</v>
       </c>
       <c r="AJ15" s="17" t="n">
-        <v>580061446</v>
+        <v>522939370</v>
       </c>
       <c r="AK15" s="17" t="n">
-        <v>522939370</v>
+        <v>536379292</v>
       </c>
       <c r="AL15" s="17" t="n">
-        <v>536379292</v>
+        <v>543087251</v>
       </c>
       <c r="AM15" s="17" t="n">
-        <v>543087251</v>
+        <v>533728325</v>
       </c>
       <c r="AN15" s="17" t="n">
-        <v>533728325</v>
+        <v>534681699</v>
       </c>
       <c r="AO15" s="17" t="n">
-        <v>534681699</v>
+        <v>393015071</v>
       </c>
       <c r="AP15" s="17" t="n">
-        <v>393015071</v>
+        <v>550620859</v>
       </c>
       <c r="AQ15" s="17" t="n">
-        <v>550620859</v>
+        <v>550710422</v>
       </c>
       <c r="AR15" s="17" t="n">
-        <v>550710422</v>
+        <v>546644459</v>
       </c>
       <c r="AS15" s="17" t="n">
-        <v>546644459</v>
+        <v>550240536</v>
       </c>
       <c r="AT15" s="17" t="n">
-        <v>550240536</v>
+        <v>541983692</v>
       </c>
       <c r="AU15" s="17" t="n">
-        <v>541983692</v>
+        <v>541550519</v>
       </c>
       <c r="AV15" s="17" t="n">
-        <v>541550519</v>
+        <v>532382003</v>
       </c>
       <c r="AW15" s="17" t="n">
-        <v>532382003</v>
+        <v>530142393</v>
       </c>
       <c r="AX15" s="17" t="n">
-        <v>530142393</v>
+        <v>530319550</v>
       </c>
       <c r="AY15" s="17" t="n">
-        <v>530319550</v>
+        <v>531609934</v>
       </c>
       <c r="AZ15" s="17" t="n">
-        <v>531609934</v>
+        <v>530239017</v>
       </c>
       <c r="BA15" s="17" t="n">
-        <v>530239017</v>
+        <v>321921046</v>
       </c>
       <c r="BB15" s="17" t="n">
-        <v>321921046</v>
+        <v>470489659</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,152 +4312,152 @@
       <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>57</v>
+      <c r="F22" s="13" t="n">
+        <v>216663000</v>
       </c>
       <c r="G22" s="13" t="n">
-        <v>216663000</v>
+        <v>575030600</v>
       </c>
       <c r="H22" s="13" t="n">
-        <v>575030600</v>
+        <v>579815380</v>
       </c>
       <c r="I22" s="13" t="n">
-        <v>579815380</v>
+        <v>570657000</v>
       </c>
       <c r="J22" s="13" t="n">
-        <v>570657000</v>
+        <v>572004000</v>
       </c>
       <c r="K22" s="13" t="n">
-        <v>572004000</v>
+        <v>574390450</v>
       </c>
       <c r="L22" s="13" t="n">
-        <v>574390450</v>
+        <v>556714000</v>
       </c>
       <c r="M22" s="13" t="n">
-        <v>556714000</v>
+        <v>561022000</v>
       </c>
       <c r="N22" s="13" t="n">
-        <v>561022000</v>
+        <v>565703950</v>
       </c>
       <c r="O22" s="13" t="n">
-        <v>565703950</v>
+        <v>551624000</v>
       </c>
       <c r="P22" s="13" t="n">
-        <v>551624000</v>
+        <v>550977700</v>
       </c>
       <c r="Q22" s="13" t="n">
-        <v>550977700</v>
+        <v>434393500</v>
       </c>
       <c r="R22" s="13" t="n">
-        <v>434393500</v>
+        <v>532476000</v>
       </c>
       <c r="S22" s="13" t="n">
-        <v>532476000</v>
+        <v>591056800</v>
       </c>
       <c r="T22" s="13" t="n">
-        <v>591056800</v>
+        <v>590192000</v>
       </c>
       <c r="U22" s="13" t="n">
-        <v>590192000</v>
+        <v>552947000</v>
       </c>
       <c r="V22" s="13" t="n">
-        <v>552947000</v>
+        <v>535207000</v>
       </c>
       <c r="W22" s="13" t="n">
-        <v>535207000</v>
+        <v>562026500</v>
       </c>
       <c r="X22" s="13" t="n">
-        <v>562026500</v>
+        <v>548722900</v>
       </c>
       <c r="Y22" s="13" t="n">
-        <v>548722900</v>
+        <v>535195200</v>
       </c>
       <c r="Z22" s="13" t="n">
-        <v>535195200</v>
+        <v>540299430</v>
       </c>
       <c r="AA22" s="13" t="n">
-        <v>540299430</v>
+        <v>540990300</v>
       </c>
       <c r="AB22" s="13" t="n">
-        <v>540990300</v>
+        <v>540220900</v>
       </c>
       <c r="AC22" s="13" t="n">
-        <v>540220900</v>
+        <v>306334650</v>
       </c>
       <c r="AD22" s="13" t="n">
-        <v>306334650</v>
+        <v>422598000</v>
       </c>
       <c r="AE22" s="13" t="n">
-        <v>422598000</v>
+        <v>561370700</v>
       </c>
       <c r="AF22" s="13" t="n">
-        <v>561370700</v>
+        <v>570347000</v>
       </c>
       <c r="AG22" s="13" t="n">
-        <v>570347000</v>
+        <v>575023900</v>
       </c>
       <c r="AH22" s="13" t="n">
-        <v>575023900</v>
+        <v>571840350</v>
       </c>
       <c r="AI22" s="13" t="n">
-        <v>571840350</v>
+        <v>577864000</v>
       </c>
       <c r="AJ22" s="13" t="n">
-        <v>577864000</v>
+        <v>550731300</v>
       </c>
       <c r="AK22" s="13" t="n">
-        <v>550731300</v>
+        <v>540017500</v>
       </c>
       <c r="AL22" s="13" t="n">
-        <v>540017500</v>
+        <v>541895000</v>
       </c>
       <c r="AM22" s="13" t="n">
-        <v>541895000</v>
+        <v>540287500</v>
       </c>
       <c r="AN22" s="13" t="n">
-        <v>540287500</v>
+        <v>520673900</v>
       </c>
       <c r="AO22" s="13" t="n">
-        <v>520673900</v>
+        <v>304236800</v>
       </c>
       <c r="AP22" s="13" t="n">
-        <v>304236800</v>
+        <v>540324000</v>
       </c>
       <c r="AQ22" s="13" t="n">
-        <v>540324000</v>
+        <v>540164000</v>
       </c>
       <c r="AR22" s="13" t="n">
-        <v>540164000</v>
+        <v>550278000</v>
       </c>
       <c r="AS22" s="13" t="n">
-        <v>550278000</v>
+        <v>546768900</v>
       </c>
       <c r="AT22" s="13" t="n">
-        <v>546768900</v>
+        <v>541491000</v>
       </c>
       <c r="AU22" s="13" t="n">
-        <v>541491000</v>
+        <v>540126000</v>
       </c>
       <c r="AV22" s="13" t="n">
-        <v>540126000</v>
+        <v>530290000</v>
       </c>
       <c r="AW22" s="13" t="n">
-        <v>530290000</v>
+        <v>530572500</v>
       </c>
       <c r="AX22" s="13" t="n">
-        <v>530572500</v>
+        <v>530221000</v>
       </c>
       <c r="AY22" s="13" t="n">
-        <v>530221000</v>
+        <v>546206000</v>
       </c>
       <c r="AZ22" s="13" t="n">
-        <v>546206000</v>
+        <v>552424200</v>
       </c>
       <c r="BA22" s="13" t="n">
-        <v>552424200</v>
+        <v>293972400</v>
       </c>
       <c r="BB22" s="13" t="n">
-        <v>293972400</v>
+        <v>450456500</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,8 +4576,8 @@
       <c r="U24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V24" s="13" t="s">
-        <v>57</v>
+      <c r="V24" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W24" s="13" t="n">
         <v>0</v>
@@ -4603,8 +4603,8 @@
       <c r="AD24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE24" s="13" t="n">
-        <v>0</v>
+      <c r="AE24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF24" s="13" t="s">
         <v>57</v>
@@ -4636,11 +4636,11 @@
       <c r="AO24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ24" s="13" t="n">
-        <v>0</v>
+      <c r="AP24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR24" s="13" t="s">
         <v>57</v>
@@ -4730,8 +4730,8 @@
       <c r="T25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U25" s="15" t="s">
-        <v>57</v>
+      <c r="U25" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V25" s="15" t="n">
         <v>0</v>
@@ -4946,17 +4946,17 @@
       <c r="T27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="13" t="s">
-        <v>57</v>
+      <c r="U27" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V27" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W27" s="13" t="n">
-        <v>0</v>
+        <v>-850000</v>
       </c>
       <c r="X27" s="13" t="n">
-        <v>-850000</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="13" t="n">
         <v>0</v>
@@ -4971,29 +4971,29 @@
         <v>0</v>
       </c>
       <c r="AC27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="13" t="n">
         <v>-1594000</v>
       </c>
+      <c r="AD27" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE27" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AF27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG27" s="13" t="s">
-        <v>57</v>
+      <c r="AG27" s="13" t="n">
+        <v>-2506000</v>
       </c>
       <c r="AH27" s="13" t="n">
-        <v>-2506000</v>
+        <v>-1700000</v>
       </c>
       <c r="AI27" s="13" t="n">
-        <v>-1700000</v>
-      </c>
-      <c r="AJ27" s="13" t="n">
         <v>-5100000</v>
       </c>
+      <c r="AJ27" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AK27" s="13" t="s">
         <v>57</v>
       </c>
@@ -5003,17 +5003,17 @@
       <c r="AM27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN27" s="13" t="s">
-        <v>57</v>
+      <c r="AN27" s="13" t="n">
+        <v>-100000</v>
       </c>
       <c r="AO27" s="13" t="n">
-        <v>-100000</v>
+        <v>-405000</v>
       </c>
       <c r="AP27" s="13" t="n">
-        <v>-405000</v>
-      </c>
-      <c r="AQ27" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR27" s="13" t="s">
         <v>57</v>
@@ -5021,29 +5021,29 @@
       <c r="AS27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT27" s="13" t="s">
-        <v>57</v>
+      <c r="AT27" s="13" t="n">
+        <v>-1120000</v>
       </c>
       <c r="AU27" s="13" t="n">
-        <v>-1120000</v>
-      </c>
-      <c r="AV27" s="13" t="n">
         <v>-80000</v>
       </c>
-      <c r="AW27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="13" t="s">
-        <v>57</v>
+      <c r="AV27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY27" s="13" t="n">
+        <v>-1000000</v>
       </c>
       <c r="AZ27" s="13" t="n">
-        <v>-1000000</v>
-      </c>
-      <c r="BA27" s="13" t="n">
         <v>-6789000</v>
+      </c>
+      <c r="BA27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB27" s="13" t="s">
         <v>57</v>
@@ -5103,17 +5103,17 @@
       <c r="T28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U28" s="15" t="s">
-        <v>57</v>
+      <c r="U28" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V28" s="15" t="n">
         <v>0</v>
       </c>
       <c r="W28" s="15" t="n">
-        <v>0</v>
+        <v>-850000</v>
       </c>
       <c r="X28" s="15" t="n">
-        <v>-850000</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="15" t="n">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="15" t="n">
-        <v>0</v>
+        <v>-1594000</v>
       </c>
       <c r="AD28" s="15" t="n">
-        <v>-1594000</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="15" t="n">
         <v>0</v>
@@ -5140,16 +5140,16 @@
         <v>0</v>
       </c>
       <c r="AG28" s="15" t="n">
-        <v>0</v>
+        <v>-2506000</v>
       </c>
       <c r="AH28" s="15" t="n">
-        <v>-2506000</v>
+        <v>-1700000</v>
       </c>
       <c r="AI28" s="15" t="n">
-        <v>-1700000</v>
+        <v>-5100000</v>
       </c>
       <c r="AJ28" s="15" t="n">
-        <v>-5100000</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="15" t="n">
         <v>0</v>
@@ -5161,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="AN28" s="15" t="n">
-        <v>0</v>
+        <v>-100000</v>
       </c>
       <c r="AO28" s="15" t="n">
-        <v>-100000</v>
+        <v>-405000</v>
       </c>
       <c r="AP28" s="15" t="n">
-        <v>-405000</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="15" t="n">
         <v>0</v>
@@ -5179,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="AT28" s="15" t="n">
-        <v>0</v>
+        <v>-1120000</v>
       </c>
       <c r="AU28" s="15" t="n">
-        <v>-1120000</v>
+        <v>-80000</v>
       </c>
       <c r="AV28" s="15" t="n">
-        <v>-80000</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="15" t="n">
         <v>0</v>
@@ -5194,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="AY28" s="15" t="n">
-        <v>0</v>
+        <v>-1000000</v>
       </c>
       <c r="AZ28" s="15" t="n">
-        <v>-1000000</v>
+        <v>-6789000</v>
       </c>
       <c r="BA28" s="15" t="n">
-        <v>-6789000</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="15" t="n">
         <v>0</v>
@@ -5216,151 +5216,151 @@
         <v>0</v>
       </c>
       <c r="F29" s="17" t="n">
-        <v>0</v>
+        <v>216663000</v>
       </c>
       <c r="G29" s="17" t="n">
-        <v>216663000</v>
+        <v>575030600</v>
       </c>
       <c r="H29" s="17" t="n">
-        <v>575030600</v>
+        <v>579815380</v>
       </c>
       <c r="I29" s="17" t="n">
-        <v>579815380</v>
+        <v>570657000</v>
       </c>
       <c r="J29" s="17" t="n">
-        <v>570657000</v>
+        <v>572004000</v>
       </c>
       <c r="K29" s="17" t="n">
-        <v>572004000</v>
+        <v>574390450</v>
       </c>
       <c r="L29" s="17" t="n">
-        <v>574390450</v>
+        <v>556714000</v>
       </c>
       <c r="M29" s="17" t="n">
-        <v>556714000</v>
+        <v>561022000</v>
       </c>
       <c r="N29" s="17" t="n">
-        <v>561022000</v>
+        <v>565703950</v>
       </c>
       <c r="O29" s="17" t="n">
-        <v>565703950</v>
+        <v>551624000</v>
       </c>
       <c r="P29" s="17" t="n">
-        <v>551624000</v>
+        <v>550977700</v>
       </c>
       <c r="Q29" s="17" t="n">
-        <v>550977700</v>
+        <v>434393500</v>
       </c>
       <c r="R29" s="17" t="n">
-        <v>434393500</v>
+        <v>532476000</v>
       </c>
       <c r="S29" s="17" t="n">
-        <v>532476000</v>
+        <v>591056800</v>
       </c>
       <c r="T29" s="17" t="n">
-        <v>591056800</v>
+        <v>590192000</v>
       </c>
       <c r="U29" s="17" t="n">
-        <v>590192000</v>
+        <v>552947000</v>
       </c>
       <c r="V29" s="17" t="n">
-        <v>552947000</v>
+        <v>535207000</v>
       </c>
       <c r="W29" s="17" t="n">
-        <v>535207000</v>
+        <v>561176500</v>
       </c>
       <c r="X29" s="17" t="n">
-        <v>561176500</v>
+        <v>548722900</v>
       </c>
       <c r="Y29" s="17" t="n">
-        <v>548722900</v>
+        <v>535195200</v>
       </c>
       <c r="Z29" s="17" t="n">
-        <v>535195200</v>
+        <v>540299430</v>
       </c>
       <c r="AA29" s="17" t="n">
-        <v>540299430</v>
+        <v>540990300</v>
       </c>
       <c r="AB29" s="17" t="n">
-        <v>540990300</v>
+        <v>540220900</v>
       </c>
       <c r="AC29" s="17" t="n">
-        <v>540220900</v>
+        <v>304740650</v>
       </c>
       <c r="AD29" s="17" t="n">
-        <v>304740650</v>
+        <v>422598000</v>
       </c>
       <c r="AE29" s="17" t="n">
-        <v>422598000</v>
+        <v>561370700</v>
       </c>
       <c r="AF29" s="17" t="n">
-        <v>561370700</v>
+        <v>570347000</v>
       </c>
       <c r="AG29" s="17" t="n">
-        <v>570347000</v>
+        <v>572517900</v>
       </c>
       <c r="AH29" s="17" t="n">
-        <v>572517900</v>
+        <v>570140350</v>
       </c>
       <c r="AI29" s="17" t="n">
-        <v>570140350</v>
+        <v>572764000</v>
       </c>
       <c r="AJ29" s="17" t="n">
-        <v>572764000</v>
+        <v>550731300</v>
       </c>
       <c r="AK29" s="17" t="n">
-        <v>550731300</v>
+        <v>540017500</v>
       </c>
       <c r="AL29" s="17" t="n">
-        <v>540017500</v>
+        <v>541895000</v>
       </c>
       <c r="AM29" s="17" t="n">
-        <v>541895000</v>
+        <v>540287500</v>
       </c>
       <c r="AN29" s="17" t="n">
-        <v>540287500</v>
+        <v>520573900</v>
       </c>
       <c r="AO29" s="17" t="n">
-        <v>520573900</v>
+        <v>303831800</v>
       </c>
       <c r="AP29" s="17" t="n">
-        <v>303831800</v>
+        <v>540324000</v>
       </c>
       <c r="AQ29" s="17" t="n">
-        <v>540324000</v>
+        <v>540164000</v>
       </c>
       <c r="AR29" s="17" t="n">
-        <v>540164000</v>
+        <v>550278000</v>
       </c>
       <c r="AS29" s="17" t="n">
-        <v>550278000</v>
+        <v>546768900</v>
       </c>
       <c r="AT29" s="17" t="n">
-        <v>546768900</v>
+        <v>540371000</v>
       </c>
       <c r="AU29" s="17" t="n">
-        <v>540371000</v>
+        <v>540046000</v>
       </c>
       <c r="AV29" s="17" t="n">
-        <v>540046000</v>
+        <v>530290000</v>
       </c>
       <c r="AW29" s="17" t="n">
-        <v>530290000</v>
+        <v>530572500</v>
       </c>
       <c r="AX29" s="17" t="n">
-        <v>530572500</v>
+        <v>530221000</v>
       </c>
       <c r="AY29" s="17" t="n">
-        <v>530221000</v>
+        <v>545206000</v>
       </c>
       <c r="AZ29" s="17" t="n">
-        <v>545206000</v>
+        <v>545635200</v>
       </c>
       <c r="BA29" s="17" t="n">
-        <v>545635200</v>
+        <v>293972400</v>
       </c>
       <c r="BB29" s="17" t="n">
-        <v>293972400</v>
+        <v>450456500</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,152 +5808,152 @@
       <c r="E36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>57</v>
+      <c r="F36" s="13" t="n">
+        <v>29272</v>
       </c>
       <c r="G36" s="13" t="n">
-        <v>29272</v>
+        <v>80807</v>
       </c>
       <c r="H36" s="13" t="n">
-        <v>80807</v>
+        <v>81472</v>
       </c>
       <c r="I36" s="13" t="n">
-        <v>81472</v>
+        <v>81748</v>
       </c>
       <c r="J36" s="13" t="n">
-        <v>81748</v>
+        <v>80270</v>
       </c>
       <c r="K36" s="13" t="n">
-        <v>80270</v>
+        <v>83548</v>
       </c>
       <c r="L36" s="13" t="n">
-        <v>83548</v>
+        <v>81259</v>
       </c>
       <c r="M36" s="13" t="n">
-        <v>81259</v>
+        <v>81570</v>
       </c>
       <c r="N36" s="13" t="n">
-        <v>81570</v>
+        <v>82478</v>
       </c>
       <c r="O36" s="13" t="n">
-        <v>82478</v>
+        <v>80519</v>
       </c>
       <c r="P36" s="13" t="n">
-        <v>80519</v>
+        <v>80975</v>
       </c>
       <c r="Q36" s="13" t="n">
-        <v>80975</v>
+        <v>63991</v>
       </c>
       <c r="R36" s="13" t="n">
-        <v>63991</v>
+        <v>91208</v>
       </c>
       <c r="S36" s="13" t="n">
-        <v>91208</v>
+        <v>104363</v>
       </c>
       <c r="T36" s="13" t="n">
-        <v>104363</v>
+        <v>106094</v>
       </c>
       <c r="U36" s="13" t="n">
-        <v>106094</v>
+        <v>100422</v>
       </c>
       <c r="V36" s="13" t="n">
-        <v>100422</v>
+        <v>97383</v>
       </c>
       <c r="W36" s="13" t="n">
-        <v>97383</v>
+        <v>210381</v>
       </c>
       <c r="X36" s="13" t="n">
-        <v>210381</v>
+        <v>206242</v>
       </c>
       <c r="Y36" s="13" t="n">
-        <v>206242</v>
+        <v>200686</v>
       </c>
       <c r="Z36" s="13" t="n">
-        <v>200686</v>
+        <v>201418</v>
       </c>
       <c r="AA36" s="13" t="n">
-        <v>201418</v>
+        <v>205160</v>
       </c>
       <c r="AB36" s="13" t="n">
-        <v>205160</v>
+        <v>200157</v>
       </c>
       <c r="AC36" s="13" t="n">
-        <v>200157</v>
+        <v>115725</v>
       </c>
       <c r="AD36" s="13" t="n">
-        <v>115725</v>
+        <v>193687</v>
       </c>
       <c r="AE36" s="13" t="n">
-        <v>193687</v>
+        <v>273839</v>
       </c>
       <c r="AF36" s="13" t="n">
-        <v>273839</v>
+        <v>280558</v>
       </c>
       <c r="AG36" s="13" t="n">
-        <v>280558</v>
+        <v>281188</v>
       </c>
       <c r="AH36" s="13" t="n">
-        <v>281188</v>
+        <v>277959</v>
       </c>
       <c r="AI36" s="13" t="n">
-        <v>277959</v>
+        <v>284777</v>
       </c>
       <c r="AJ36" s="13" t="n">
-        <v>284777</v>
+        <v>345441</v>
       </c>
       <c r="AK36" s="13" t="n">
-        <v>345441</v>
+        <v>338748</v>
       </c>
       <c r="AL36" s="13" t="n">
-        <v>338748</v>
+        <v>336170</v>
       </c>
       <c r="AM36" s="13" t="n">
-        <v>336170</v>
+        <v>335855</v>
       </c>
       <c r="AN36" s="13" t="n">
-        <v>335855</v>
+        <v>321010</v>
       </c>
       <c r="AO36" s="13" t="n">
-        <v>321010</v>
+        <v>191820</v>
       </c>
       <c r="AP36" s="13" t="n">
-        <v>191820</v>
+        <v>475026</v>
       </c>
       <c r="AQ36" s="13" t="n">
-        <v>475026</v>
+        <v>481181</v>
       </c>
       <c r="AR36" s="13" t="n">
-        <v>481181</v>
+        <v>486313</v>
       </c>
       <c r="AS36" s="13" t="n">
-        <v>486313</v>
+        <v>483642</v>
       </c>
       <c r="AT36" s="13" t="n">
-        <v>483642</v>
+        <v>480308</v>
       </c>
       <c r="AU36" s="13" t="n">
-        <v>480308</v>
+        <v>477509</v>
       </c>
       <c r="AV36" s="13" t="n">
-        <v>477509</v>
+        <v>468121</v>
       </c>
       <c r="AW36" s="13" t="n">
-        <v>468121</v>
+        <v>469206</v>
       </c>
       <c r="AX36" s="13" t="n">
-        <v>469206</v>
+        <v>467583</v>
       </c>
       <c r="AY36" s="13" t="n">
-        <v>467583</v>
+        <v>481077</v>
       </c>
       <c r="AZ36" s="13" t="n">
-        <v>481077</v>
+        <v>490887</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>490887</v>
+        <v>263108</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>263107</v>
+        <v>508875</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,8 +6072,8 @@
       <c r="U38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V38" s="13" t="s">
-        <v>57</v>
+      <c r="V38" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W38" s="13" t="n">
         <v>0</v>
@@ -6228,8 +6228,8 @@
       <c r="T39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U39" s="15" t="s">
-        <v>57</v>
+      <c r="U39" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="18" t="n">
         <v>0</v>
@@ -6444,17 +6444,17 @@
       <c r="T41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U41" s="13" t="s">
-        <v>57</v>
+      <c r="U41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="13" t="n">
-        <v>0</v>
+        <v>-132</v>
       </c>
       <c r="X41" s="13" t="n">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="13" t="n">
         <v>0</v>
@@ -6469,28 +6469,28 @@
         <v>0</v>
       </c>
       <c r="AC41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="13" t="n">
         <v>-259</v>
       </c>
+      <c r="AD41" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE41" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AF41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG41" s="13" t="s">
-        <v>57</v>
+      <c r="AG41" s="13" t="n">
+        <v>-1228</v>
       </c>
       <c r="AH41" s="13" t="n">
-        <v>-1228</v>
+        <v>-841</v>
       </c>
       <c r="AI41" s="13" t="n">
-        <v>-841</v>
+        <v>-2027</v>
       </c>
       <c r="AJ41" s="13" t="n">
-        <v>-2027</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="13" t="n">
         <v>0</v>
@@ -6502,13 +6502,13 @@
         <v>0</v>
       </c>
       <c r="AN41" s="13" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AO41" s="13" t="n">
-        <v>-19</v>
+        <v>-236</v>
       </c>
       <c r="AP41" s="13" t="n">
-        <v>-236</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="13" t="n">
         <v>0</v>
@@ -6520,13 +6520,13 @@
         <v>0</v>
       </c>
       <c r="AT41" s="13" t="n">
-        <v>0</v>
+        <v>-946</v>
       </c>
       <c r="AU41" s="13" t="n">
-        <v>-946</v>
+        <v>-71</v>
       </c>
       <c r="AV41" s="13" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="13" t="n">
         <v>0</v>
@@ -6535,16 +6535,16 @@
         <v>0</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>0</v>
+        <v>-870</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>-870</v>
+        <v>-5779</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>-5779</v>
-      </c>
-      <c r="BB41" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB41" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,17 +6603,17 @@
       <c r="T42" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="15" t="s">
-        <v>57</v>
+      <c r="U42" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V42" s="18" t="n">
         <v>0</v>
       </c>
       <c r="W42" s="18" t="n">
-        <v>0</v>
+        <v>-132</v>
       </c>
       <c r="X42" s="18" t="n">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="18" t="n">
         <v>0</v>
@@ -6628,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="AC42" s="18" t="n">
-        <v>0</v>
+        <v>-259</v>
       </c>
       <c r="AD42" s="18" t="n">
-        <v>-259</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="18" t="n">
         <v>0</v>
@@ -6640,16 +6640,16 @@
         <v>0</v>
       </c>
       <c r="AG42" s="18" t="n">
-        <v>0</v>
+        <v>-1228</v>
       </c>
       <c r="AH42" s="18" t="n">
-        <v>-1228</v>
+        <v>-841</v>
       </c>
       <c r="AI42" s="18" t="n">
-        <v>-841</v>
+        <v>-2027</v>
       </c>
       <c r="AJ42" s="18" t="n">
-        <v>-2027</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="18" t="n">
         <v>0</v>
@@ -6661,13 +6661,13 @@
         <v>0</v>
       </c>
       <c r="AN42" s="18" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AO42" s="18" t="n">
-        <v>-19</v>
+        <v>-236</v>
       </c>
       <c r="AP42" s="18" t="n">
-        <v>-236</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="18" t="n">
         <v>0</v>
@@ -6679,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="AT42" s="18" t="n">
-        <v>0</v>
+        <v>-946</v>
       </c>
       <c r="AU42" s="18" t="n">
-        <v>-946</v>
+        <v>-71</v>
       </c>
       <c r="AV42" s="18" t="n">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="18" t="n">
         <v>0</v>
@@ -6694,13 +6694,13 @@
         <v>0</v>
       </c>
       <c r="AY42" s="18" t="n">
-        <v>0</v>
+        <v>-870</v>
       </c>
       <c r="AZ42" s="18" t="n">
-        <v>-870</v>
+        <v>-5779</v>
       </c>
       <c r="BA42" s="18" t="n">
-        <v>-5779</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="18" t="n">
         <v>0</v>
@@ -6819,8 +6819,8 @@
       <c r="T44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U44" s="13" t="s">
-        <v>57</v>
+      <c r="U44" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V44" s="13" t="n">
         <v>0</v>
@@ -6932,151 +6932,151 @@
         <v>0</v>
       </c>
       <c r="F45" s="18" t="n">
-        <v>0</v>
+        <v>29272</v>
       </c>
       <c r="G45" s="18" t="n">
-        <v>29272</v>
+        <v>80807</v>
       </c>
       <c r="H45" s="18" t="n">
-        <v>80807</v>
+        <v>81472</v>
       </c>
       <c r="I45" s="18" t="n">
-        <v>81472</v>
+        <v>81748</v>
       </c>
       <c r="J45" s="18" t="n">
-        <v>81748</v>
+        <v>80270</v>
       </c>
       <c r="K45" s="18" t="n">
-        <v>80270</v>
+        <v>83548</v>
       </c>
       <c r="L45" s="18" t="n">
-        <v>83548</v>
+        <v>81259</v>
       </c>
       <c r="M45" s="18" t="n">
-        <v>81259</v>
+        <v>81570</v>
       </c>
       <c r="N45" s="18" t="n">
-        <v>81570</v>
+        <v>82478</v>
       </c>
       <c r="O45" s="18" t="n">
-        <v>82478</v>
+        <v>80519</v>
       </c>
       <c r="P45" s="18" t="n">
-        <v>80519</v>
+        <v>80975</v>
       </c>
       <c r="Q45" s="18" t="n">
-        <v>80975</v>
+        <v>63991</v>
       </c>
       <c r="R45" s="18" t="n">
-        <v>63991</v>
+        <v>91208</v>
       </c>
       <c r="S45" s="18" t="n">
-        <v>91208</v>
+        <v>104363</v>
       </c>
       <c r="T45" s="18" t="n">
-        <v>104363</v>
+        <v>106094</v>
       </c>
       <c r="U45" s="18" t="n">
-        <v>106094</v>
+        <v>100422</v>
       </c>
       <c r="V45" s="18" t="n">
-        <v>100422</v>
+        <v>97383</v>
       </c>
       <c r="W45" s="18" t="n">
-        <v>97383</v>
+        <v>210249</v>
       </c>
       <c r="X45" s="18" t="n">
-        <v>210249</v>
+        <v>206242</v>
       </c>
       <c r="Y45" s="18" t="n">
-        <v>206242</v>
+        <v>200686</v>
       </c>
       <c r="Z45" s="18" t="n">
-        <v>200686</v>
+        <v>201418</v>
       </c>
       <c r="AA45" s="18" t="n">
-        <v>201418</v>
+        <v>205160</v>
       </c>
       <c r="AB45" s="18" t="n">
-        <v>205160</v>
+        <v>200157</v>
       </c>
       <c r="AC45" s="18" t="n">
-        <v>200157</v>
+        <v>115466</v>
       </c>
       <c r="AD45" s="18" t="n">
-        <v>115466</v>
+        <v>193687</v>
       </c>
       <c r="AE45" s="18" t="n">
-        <v>193687</v>
+        <v>273839</v>
       </c>
       <c r="AF45" s="18" t="n">
-        <v>273839</v>
+        <v>280558</v>
       </c>
       <c r="AG45" s="18" t="n">
-        <v>280558</v>
+        <v>279960</v>
       </c>
       <c r="AH45" s="18" t="n">
-        <v>279960</v>
+        <v>277118</v>
       </c>
       <c r="AI45" s="18" t="n">
-        <v>277118</v>
+        <v>282750</v>
       </c>
       <c r="AJ45" s="18" t="n">
-        <v>282750</v>
+        <v>345441</v>
       </c>
       <c r="AK45" s="18" t="n">
-        <v>345441</v>
+        <v>338748</v>
       </c>
       <c r="AL45" s="18" t="n">
-        <v>338748</v>
+        <v>336170</v>
       </c>
       <c r="AM45" s="18" t="n">
-        <v>336170</v>
+        <v>335855</v>
       </c>
       <c r="AN45" s="18" t="n">
-        <v>335855</v>
+        <v>320991</v>
       </c>
       <c r="AO45" s="18" t="n">
-        <v>320991</v>
+        <v>191584</v>
       </c>
       <c r="AP45" s="18" t="n">
-        <v>191584</v>
+        <v>475026</v>
       </c>
       <c r="AQ45" s="18" t="n">
-        <v>475026</v>
+        <v>481181</v>
       </c>
       <c r="AR45" s="18" t="n">
-        <v>481181</v>
+        <v>486313</v>
       </c>
       <c r="AS45" s="18" t="n">
-        <v>486313</v>
+        <v>483642</v>
       </c>
       <c r="AT45" s="18" t="n">
-        <v>483642</v>
+        <v>479362</v>
       </c>
       <c r="AU45" s="18" t="n">
-        <v>479362</v>
+        <v>477438</v>
       </c>
       <c r="AV45" s="18" t="n">
-        <v>477438</v>
+        <v>468121</v>
       </c>
       <c r="AW45" s="18" t="n">
-        <v>468121</v>
+        <v>469206</v>
       </c>
       <c r="AX45" s="18" t="n">
-        <v>469206</v>
+        <v>467583</v>
       </c>
       <c r="AY45" s="18" t="n">
-        <v>467583</v>
+        <v>480207</v>
       </c>
       <c r="AZ45" s="18" t="n">
-        <v>480207</v>
+        <v>485108</v>
       </c>
       <c r="BA45" s="18" t="n">
-        <v>485108</v>
+        <v>263108</v>
       </c>
       <c r="BB45" s="18" t="n">
-        <v>263107</v>
+        <v>508875</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7524,152 +7524,152 @@
       <c r="E52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>57</v>
+      <c r="F52" s="13" t="n">
+        <v>135</v>
       </c>
       <c r="G52" s="13" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H52" s="13" t="n">
         <v>141</v>
       </c>
       <c r="I52" s="13" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J52" s="13" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K52" s="13" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L52" s="13" t="n">
+        <v>146</v>
+      </c>
+      <c r="M52" s="13" t="n">
         <v>145</v>
       </c>
-      <c r="M52" s="13" t="n">
+      <c r="N52" s="13" t="n">
         <v>146</v>
-      </c>
-      <c r="N52" s="13" t="n">
-        <v>145</v>
       </c>
       <c r="O52" s="13" t="n">
         <v>146</v>
       </c>
       <c r="P52" s="13" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q52" s="13" t="n">
         <v>147</v>
       </c>
       <c r="R52" s="13" t="n">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="S52" s="13" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="T52" s="13" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="U52" s="13" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="V52" s="13" t="n">
         <v>182</v>
       </c>
       <c r="W52" s="13" t="n">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="X52" s="13" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Y52" s="13" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z52" s="13" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AA52" s="13" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AB52" s="13" t="n">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AC52" s="13" t="n">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AD52" s="13" t="n">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="AE52" s="13" t="n">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="AF52" s="13" t="n">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AG52" s="13" t="n">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AH52" s="13" t="n">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AI52" s="13" t="n">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AJ52" s="13" t="n">
-        <v>493</v>
+        <v>627</v>
       </c>
       <c r="AK52" s="13" t="n">
         <v>627</v>
       </c>
       <c r="AL52" s="13" t="n">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AM52" s="13" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AN52" s="13" t="n">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AO52" s="13" t="n">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="AP52" s="13" t="n">
-        <v>631</v>
+        <v>879</v>
       </c>
       <c r="AQ52" s="13" t="n">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="AR52" s="13" t="n">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="AS52" s="13" t="n">
+        <v>885</v>
+      </c>
+      <c r="AT52" s="13" t="n">
+        <v>887</v>
+      </c>
+      <c r="AU52" s="13" t="n">
         <v>884</v>
       </c>
-      <c r="AT52" s="13" t="n">
-        <v>885</v>
-      </c>
-      <c r="AU52" s="13" t="n">
-        <v>887</v>
-      </c>
       <c r="AV52" s="13" t="n">
+        <v>883</v>
+      </c>
+      <c r="AW52" s="13" t="n">
         <v>884</v>
       </c>
-      <c r="AW52" s="13" t="n">
-        <v>883</v>
-      </c>
       <c r="AX52" s="13" t="n">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AY52" s="13" t="n">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AZ52" s="13" t="n">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="BA52" s="13" t="n">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="BB52" s="13" t="n">
-        <v>895</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7788,8 +7788,8 @@
       <c r="U54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V54" s="13" t="s">
-        <v>57</v>
+      <c r="V54" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W54" s="13" t="n">
         <v>0</v>
